--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37956.48741808314</v>
+        <v>34940.98577805627</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="X3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
     </row>
     <row r="4">
@@ -829,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K4" t="n">
-        <v>6.056421089299432</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -987,55 +987,55 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="H6" t="n">
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="V6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I6" t="n">
+      <c r="W6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G8" t="n">
-        <v>21.45987517072736</v>
+        <v>182.5570120086799</v>
       </c>
       <c r="H8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368128</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>101.3456292941749</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>116.3937254205879</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>23.4337583055308</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845758</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>187.5255871663201</v>
+        <v>106.0987177174915</v>
       </c>
       <c r="U10" t="n">
-        <v>67.39169448148124</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>165.4625679537466</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.5604002790257</v>
       </c>
       <c r="H11" t="n">
-        <v>290.9073408964625</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>27.64693327530102</v>
+        <v>27.64693327530122</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>100.954059818404</v>
+        <v>100.9540598184041</v>
       </c>
       <c r="T11" t="n">
         <v>202.3362683130628</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>92.9916948282999</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.8061430467395</v>
       </c>
       <c r="H12" t="n">
-        <v>87.72975211163048</v>
+        <v>87.7297521116305</v>
       </c>
       <c r="I12" t="n">
-        <v>12.16103432325251</v>
+        <v>12.16103432325261</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>124.5525597737709</v>
+        <v>124.552559773771</v>
       </c>
       <c r="T12" t="n">
         <v>189.9373303920279</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8637301351302</v>
       </c>
       <c r="H13" t="n">
-        <v>143.3139930491185</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>80.70570979372903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>81.64453084459677</v>
+        <v>81.64453084459689</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.9444456631466</v>
       </c>
       <c r="T13" t="n">
         <v>218.8564336558777</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>7.848597735729236</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>332.4423155261902</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>34.32106446353023</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>150.5362240281632</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1819,13 +1819,13 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>34.98122175714862</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>379.1415897965308</v>
+        <v>379.1415897965312</v>
       </c>
       <c r="C17" t="n">
         <v>361.6806399040582</v>
@@ -1898,7 +1898,7 @@
         <v>195.6048049705248</v>
       </c>
       <c r="U17" t="n">
-        <v>247.3166441206969</v>
+        <v>247.3166441206983</v>
       </c>
       <c r="V17" t="n">
         <v>324.1600066031855</v>
@@ -2002,25 +2002,25 @@
         <v>176.2397283149879</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>163.6545692316785</v>
       </c>
       <c r="D19" t="n">
-        <v>145.023221151263</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>142.8417107796198</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>142.5911560589455</v>
       </c>
       <c r="H19" t="n">
         <v>136.8617379250045</v>
       </c>
       <c r="I19" t="n">
-        <v>33.00461851306743</v>
+        <v>78.21232487745965</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>63.58849972413418</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>177.7462364915096</v>
@@ -2132,7 +2132,7 @@
         <v>81.02033873387025</v>
       </c>
       <c r="T20" t="n">
-        <v>195.6048049705248</v>
+        <v>195.6048049705263</v>
       </c>
       <c r="U20" t="n">
         <v>247.3166441206969</v>
@@ -2242,10 +2242,10 @@
         <v>163.6545692316785</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>142.8417107796198</v>
       </c>
       <c r="F22" t="n">
         <v>141.8287961559819</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>63.58849972413418</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.0443584625858</v>
+        <v>177.7462364915096</v>
       </c>
       <c r="T22" t="n">
         <v>213.8897425958124</v>
       </c>
       <c r="U22" t="n">
-        <v>282.593199681471</v>
+        <v>48.61488944579813</v>
       </c>
       <c r="V22" t="n">
         <v>248.5453914568786</v>
@@ -2482,19 +2482,19 @@
         <v>145.023221151263</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>142.8417107796198</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G25" t="n">
-        <v>149.053497986013</v>
+        <v>161.9498010102176</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>78.21232487745965</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>63.58849972413418</v>
       </c>
       <c r="S25" t="n">
-        <v>177.7462364915096</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>213.8897425958124</v>
@@ -2539,7 +2539,7 @@
         <v>282.9307464696416</v>
       </c>
       <c r="X25" t="n">
-        <v>222.1174035220878</v>
+        <v>24.08450517633089</v>
       </c>
       <c r="Y25" t="n">
         <v>214.9924014851454</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>379.1415897965312</v>
+        <v>379.1415897965313</v>
       </c>
       <c r="C26" t="n">
         <v>361.6806399040582</v>
@@ -2561,13 +2561,13 @@
         <v>351.0907897537336</v>
       </c>
       <c r="E26" t="n">
-        <v>378.3381182053124</v>
+        <v>378.3381182053125</v>
       </c>
       <c r="F26" t="n">
         <v>403.2837938747621</v>
       </c>
       <c r="G26" t="n">
-        <v>406.2510241458082</v>
+        <v>406.2510241458083</v>
       </c>
       <c r="H26" t="n">
         <v>279.970840137595</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>81.02033873387025</v>
+        <v>81.0203387338703</v>
       </c>
       <c r="T26" t="n">
         <v>195.6048049705248</v>
       </c>
       <c r="U26" t="n">
-        <v>247.3166441206969</v>
+        <v>247.316644120697</v>
       </c>
       <c r="V26" t="n">
-        <v>324.1600066031855</v>
+        <v>324.1600066031856</v>
       </c>
       <c r="W26" t="n">
-        <v>345.6487168504636</v>
+        <v>345.6487168504637</v>
       </c>
       <c r="X26" t="n">
         <v>366.1388488115197</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.6456867891042</v>
+        <v>382.6456867891043</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>176.2397283149879</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>163.6545692316785</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>142.8417107796199</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G28" t="n">
-        <v>161.9498010102176</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>132.1269181270584</v>
+        <v>104.2112190895315</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>63.58849972413418</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>177.7462364915096</v>
       </c>
       <c r="T28" t="n">
-        <v>213.8897425958124</v>
+        <v>213.8897425958125</v>
       </c>
       <c r="U28" t="n">
-        <v>282.593199681471</v>
+        <v>282.5931996814711</v>
       </c>
       <c r="V28" t="n">
-        <v>248.5453914568786</v>
+        <v>248.5453914568787</v>
       </c>
       <c r="W28" t="n">
-        <v>282.9307464696416</v>
+        <v>282.9307464696417</v>
       </c>
       <c r="X28" t="n">
         <v>222.1174035220878</v>
       </c>
       <c r="Y28" t="n">
-        <v>214.9924014851454</v>
+        <v>214.9924014851455</v>
       </c>
     </row>
     <row r="29">
@@ -2953,7 +2953,7 @@
         <v>163.6545692316785</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>53.91459324959807</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>161.9498010102176</v>
       </c>
       <c r="H31" t="n">
-        <v>136.8617379250045</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>78.21232487745965</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>63.58849972413418</v>
       </c>
       <c r="S31" t="n">
         <v>177.7462364915096</v>
@@ -3007,7 +3007,7 @@
         <v>282.593199681471</v>
       </c>
       <c r="V31" t="n">
-        <v>229.1867465056069</v>
+        <v>248.5453914568786</v>
       </c>
       <c r="W31" t="n">
         <v>282.9307464696416</v>
@@ -3187,7 +3187,7 @@
         <v>176.239728314988</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>163.6545692316786</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>141.828796155982</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>161.9498010102177</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.58849972413429</v>
+        <v>63.5884997241343</v>
       </c>
       <c r="S34" t="n">
-        <v>116.6248648917974</v>
+        <v>177.7462364915097</v>
       </c>
       <c r="T34" t="n">
         <v>213.8897425958125</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5931996814712</v>
+        <v>199.6460550060628</v>
       </c>
       <c r="V34" t="n">
         <v>248.5453914568787</v>
@@ -3427,7 +3427,7 @@
         <v>163.6545692316786</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.0232211512632</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>79.00265633480736</v>
+        <v>161.9498010102177</v>
       </c>
       <c r="H37" t="n">
-        <v>136.8617379250047</v>
+        <v>86.63760858984217</v>
       </c>
       <c r="I37" t="n">
         <v>78.21232487745984</v>
@@ -3472,7 +3472,7 @@
         <v>63.58849972413437</v>
       </c>
       <c r="S37" t="n">
-        <v>177.7462364915098</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>213.8897425958126</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>379.1415897965314</v>
+        <v>379.1415897965312</v>
       </c>
       <c r="C38" t="n">
-        <v>361.6806399040584</v>
+        <v>361.6806399040582</v>
       </c>
       <c r="D38" t="n">
-        <v>351.0907897537338</v>
+        <v>351.0907897537336</v>
       </c>
       <c r="E38" t="n">
-        <v>378.3381182053126</v>
+        <v>378.3381182053124</v>
       </c>
       <c r="F38" t="n">
-        <v>403.2837938747622</v>
+        <v>403.2837938747621</v>
       </c>
       <c r="G38" t="n">
-        <v>406.2510241458084</v>
+        <v>406.2510241458082</v>
       </c>
       <c r="H38" t="n">
-        <v>279.9708401375949</v>
+        <v>279.9708401375967</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>81.02033873387042</v>
+        <v>81.02033873387025</v>
       </c>
       <c r="T38" t="n">
-        <v>195.604804970525</v>
+        <v>195.6048049705248</v>
       </c>
       <c r="U38" t="n">
-        <v>247.3166441206971</v>
+        <v>247.3166441206969</v>
       </c>
       <c r="V38" t="n">
-        <v>324.1600066031857</v>
+        <v>324.1600066031855</v>
       </c>
       <c r="W38" t="n">
-        <v>345.6487168504638</v>
+        <v>345.6487168504636</v>
       </c>
       <c r="X38" t="n">
-        <v>366.1388488115198</v>
+        <v>366.1388488115197</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.6456867891044</v>
+        <v>382.6456867891042</v>
       </c>
     </row>
     <row r="39">
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>176.2397283149881</v>
+        <v>176.2397283149879</v>
       </c>
       <c r="C40" t="n">
-        <v>163.6545692316786</v>
+        <v>163.6545692316785</v>
       </c>
       <c r="D40" t="n">
-        <v>145.0232211512632</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>75.7802597851389</v>
+        <v>79.00265633481166</v>
       </c>
       <c r="H40" t="n">
-        <v>136.8617379250047</v>
+        <v>136.8617379250045</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>78.21232487745965</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>63.58849972413418</v>
       </c>
       <c r="S40" t="n">
-        <v>177.7462364915098</v>
+        <v>177.7462364915096</v>
       </c>
       <c r="T40" t="n">
-        <v>213.8897425958126</v>
+        <v>213.8897425958124</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5931996814712</v>
+        <v>282.593199681471</v>
       </c>
       <c r="V40" t="n">
-        <v>248.5453914568788</v>
+        <v>248.5453914568786</v>
       </c>
       <c r="W40" t="n">
-        <v>282.9307464696418</v>
+        <v>282.9307464696416</v>
       </c>
       <c r="X40" t="n">
-        <v>222.117403522088</v>
+        <v>222.1174035220878</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.9924014851456</v>
+        <v>214.9924014851454</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>379.1415897965314</v>
+        <v>379.1415897965312</v>
       </c>
       <c r="C41" t="n">
-        <v>361.6806399040584</v>
+        <v>361.6806399040582</v>
       </c>
       <c r="D41" t="n">
-        <v>351.0907897537338</v>
+        <v>351.0907897537336</v>
       </c>
       <c r="E41" t="n">
-        <v>378.3381182053126</v>
+        <v>378.3381182053124</v>
       </c>
       <c r="F41" t="n">
-        <v>403.2837938747622</v>
+        <v>403.2837938747621</v>
       </c>
       <c r="G41" t="n">
-        <v>406.2510241458084</v>
+        <v>406.2510241458082</v>
       </c>
       <c r="H41" t="n">
-        <v>279.9708401375951</v>
+        <v>279.970840137595</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>81.02033873386823</v>
+        <v>81.02033873387025</v>
       </c>
       <c r="T41" t="n">
-        <v>195.604804970525</v>
+        <v>195.6048049705248</v>
       </c>
       <c r="U41" t="n">
-        <v>247.3166441206971</v>
+        <v>247.3166441206969</v>
       </c>
       <c r="V41" t="n">
-        <v>324.1600066031857</v>
+        <v>324.1600066031855</v>
       </c>
       <c r="W41" t="n">
-        <v>345.6487168504638</v>
+        <v>345.6487168504636</v>
       </c>
       <c r="X41" t="n">
-        <v>366.1388488115198</v>
+        <v>366.1388488115197</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.6456867891044</v>
+        <v>382.6456867891052</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>176.2397283149881</v>
+        <v>176.2397283149879</v>
       </c>
       <c r="C43" t="n">
-        <v>163.6545692316786</v>
+        <v>163.6545692316785</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>161.9498010102177</v>
+        <v>161.9498010102176</v>
       </c>
       <c r="H43" t="n">
-        <v>136.8617379250047</v>
+        <v>136.8617379250045</v>
       </c>
       <c r="I43" t="n">
-        <v>78.21232487745982</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>63.58849972413435</v>
+        <v>63.58849972413418</v>
       </c>
       <c r="S43" t="n">
-        <v>177.7462364915098</v>
+        <v>177.7462364915096</v>
       </c>
       <c r="T43" t="n">
-        <v>130.942597920402</v>
+        <v>213.8897425958124</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5931996814712</v>
+        <v>277.8583798835246</v>
       </c>
       <c r="V43" t="n">
-        <v>248.5453914568788</v>
+        <v>248.5453914568786</v>
       </c>
       <c r="W43" t="n">
-        <v>282.9307464696418</v>
+        <v>282.9307464696416</v>
       </c>
       <c r="X43" t="n">
-        <v>222.117403522088</v>
+        <v>222.1174035220878</v>
       </c>
       <c r="Y43" t="n">
-        <v>214.9924014851456</v>
+        <v>214.9924014851454</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>379.1415897965314</v>
+        <v>379.1415897965312</v>
       </c>
       <c r="C44" t="n">
-        <v>361.6806399040584</v>
+        <v>361.6806399040582</v>
       </c>
       <c r="D44" t="n">
-        <v>351.0907897537338</v>
+        <v>351.0907897537336</v>
       </c>
       <c r="E44" t="n">
-        <v>378.3381182053126</v>
+        <v>378.3381182053124</v>
       </c>
       <c r="F44" t="n">
-        <v>403.2837938747622</v>
+        <v>403.2837938747621</v>
       </c>
       <c r="G44" t="n">
-        <v>406.2510241458084</v>
+        <v>406.2510241458082</v>
       </c>
       <c r="H44" t="n">
-        <v>279.9708401375951</v>
+        <v>279.970840137595</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>81.02033873387042</v>
+        <v>81.02033873387023</v>
       </c>
       <c r="T44" t="n">
-        <v>195.604804970525</v>
+        <v>195.6048049705248</v>
       </c>
       <c r="U44" t="n">
-        <v>247.3166441206971</v>
+        <v>247.3166441206969</v>
       </c>
       <c r="V44" t="n">
-        <v>324.1600066031857</v>
+        <v>324.1600066031855</v>
       </c>
       <c r="W44" t="n">
-        <v>345.6487168504638</v>
+        <v>345.6487168504636</v>
       </c>
       <c r="X44" t="n">
-        <v>366.1388488115198</v>
+        <v>366.1388488115197</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.6456867891044</v>
+        <v>382.6456867891042</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>176.2397283149881</v>
+        <v>176.2397283149879</v>
       </c>
       <c r="C46" t="n">
-        <v>17.09095327774635</v>
+        <v>163.6545692316785</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>141.828796155982</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>161.9498010102177</v>
+        <v>161.9498010102176</v>
       </c>
       <c r="H46" t="n">
-        <v>136.8617379250047</v>
+        <v>132.1269181270577</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>63.58849972413435</v>
+        <v>63.58849972413417</v>
       </c>
       <c r="S46" t="n">
-        <v>177.7462364915098</v>
+        <v>177.7462364915096</v>
       </c>
       <c r="T46" t="n">
-        <v>213.8897425958126</v>
+        <v>213.8897425958124</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5931996814712</v>
+        <v>282.593199681471</v>
       </c>
       <c r="V46" t="n">
-        <v>248.5453914568788</v>
+        <v>248.5453914568786</v>
       </c>
       <c r="W46" t="n">
-        <v>282.9307464696418</v>
+        <v>282.9307464696416</v>
       </c>
       <c r="X46" t="n">
-        <v>222.117403522088</v>
+        <v>222.1174035220878</v>
       </c>
       <c r="Y46" t="n">
-        <v>214.9924014851456</v>
+        <v>214.9924014851454</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="C2" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="E2" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="F2" t="n">
         <v>20.55868221764227</v>
       </c>
-      <c r="C2" t="n">
-        <v>20.55868221764227</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.55868221764227</v>
-      </c>
-      <c r="E2" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="F2" t="n">
-        <v>7.495584408540386</v>
-      </c>
       <c r="G2" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I2" t="n">
         <v>0.5500836593369149</v>
@@ -4334,13 +4334,13 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L2" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M2" t="n">
-        <v>20.97193951221988</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N2" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O2" t="n">
         <v>27.50418296684575</v>
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H3" t="n">
         <v>0.5500836593369149</v>
@@ -4407,19 +4407,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J3" t="n">
-        <v>6.856703976333826</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K3" t="n">
-        <v>13.66398926062815</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L3" t="n">
-        <v>20.47127454492247</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M3" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="N3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O3" t="n">
         <v>27.50418296684575</v>
@@ -4431,28 +4431,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="S3" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="T3" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="U3" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="V3" t="n">
         <v>20.55868221764227</v>
-      </c>
-      <c r="S3" t="n">
-        <v>20.55868221764227</v>
-      </c>
-      <c r="T3" t="n">
-        <v>20.55868221764227</v>
-      </c>
-      <c r="U3" t="n">
-        <v>20.55868221764227</v>
-      </c>
-      <c r="V3" t="n">
-        <v>13.6131814684388</v>
       </c>
       <c r="W3" t="n">
         <v>13.6131814684388</v>
       </c>
       <c r="X3" t="n">
-        <v>6.667680719235332</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.667680719235332</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C4" t="n">
-        <v>6.667680719235332</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="D4" t="n">
-        <v>6.667680719235332</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="E4" t="n">
-        <v>6.667680719235332</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="F4" t="n">
-        <v>6.667680719235332</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="G4" t="n">
-        <v>6.667680719235332</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="H4" t="n">
-        <v>6.667680719235332</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="I4" t="n">
-        <v>6.667680719235332</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="J4" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="K4" t="n">
         <v>0.5500836593369149</v>
@@ -4519,19 +4519,19 @@
         <v>27.50418296684575</v>
       </c>
       <c r="U4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X4" t="n">
-        <v>13.6131814684388</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.667680719235332</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="5">
@@ -4571,19 +4571,19 @@
         <v>14.16465422792556</v>
       </c>
       <c r="L5" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="M5" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N5" t="n">
-        <v>14.16465422792556</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="O5" t="n">
-        <v>14.16465422792556</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P5" t="n">
-        <v>20.97193951221988</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q5" t="n">
         <v>27.50418296684575</v>
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C6" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D6" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E6" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F6" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G6" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I6" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J6" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="K6" t="n">
         <v>7.357368943631237</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>14.16465422792556</v>
-      </c>
-      <c r="L6" t="n">
-        <v>20.97193951221988</v>
       </c>
       <c r="M6" t="n">
         <v>20.97193951221988</v>
@@ -4668,28 +4668,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U6" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V6" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W6" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X6" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="C7" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="D7" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="E7" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="F7" t="n">
         <v>7.495584408540386</v>
@@ -4726,16 +4726,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5500836593369149</v>
+        <v>4.190239491689454</v>
       </c>
       <c r="L7" t="n">
-        <v>7.357368943631237</v>
+        <v>10.99752477598378</v>
       </c>
       <c r="M7" t="n">
-        <v>13.8896123982571</v>
+        <v>10.99752477598378</v>
       </c>
       <c r="N7" t="n">
-        <v>20.69689768255142</v>
+        <v>17.8048100602781</v>
       </c>
       <c r="O7" t="n">
         <v>20.69689768255142</v>
@@ -4759,16 +4759,16 @@
         <v>13.6131814684388</v>
       </c>
       <c r="V7" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W7" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X7" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>359.7826784871779</v>
+        <v>578.2426392372649</v>
       </c>
       <c r="C8" t="n">
-        <v>359.7826784871779</v>
+        <v>578.2426392372649</v>
       </c>
       <c r="D8" t="n">
-        <v>359.7826784871779</v>
+        <v>388.8228542207802</v>
       </c>
       <c r="E8" t="n">
-        <v>359.7826784871779</v>
+        <v>388.8228542207802</v>
       </c>
       <c r="F8" t="n">
-        <v>352.8371777379745</v>
+        <v>199.4030692042954</v>
       </c>
       <c r="G8" t="n">
-        <v>331.1605361513812</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020272</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R8" t="n">
-        <v>738.6222485201479</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="S8" t="n">
-        <v>738.6222485201479</v>
+        <v>578.2426392372649</v>
       </c>
       <c r="T8" t="n">
-        <v>738.6222485201479</v>
+        <v>578.2426392372649</v>
       </c>
       <c r="U8" t="n">
-        <v>738.6222485201479</v>
+        <v>578.2426392372649</v>
       </c>
       <c r="V8" t="n">
-        <v>549.2024635036629</v>
+        <v>578.2426392372649</v>
       </c>
       <c r="W8" t="n">
-        <v>549.2024635036629</v>
+        <v>578.2426392372649</v>
       </c>
       <c r="X8" t="n">
-        <v>549.2024635036629</v>
+        <v>578.2426392372649</v>
       </c>
       <c r="Y8" t="n">
-        <v>359.7826784871779</v>
+        <v>578.2426392372649</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>458.313241129427</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="C9" t="n">
-        <v>458.313241129427</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="D9" t="n">
-        <v>458.313241129427</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="E9" t="n">
-        <v>299.0757861239715</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="F9" t="n">
-        <v>152.5412281508565</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330561</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330561</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017069</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T9" t="n">
-        <v>647.7330261459119</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U9" t="n">
-        <v>458.313241129427</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="V9" t="n">
-        <v>458.313241129427</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="W9" t="n">
-        <v>458.313241129427</v>
+        <v>253.6933590155546</v>
       </c>
       <c r="X9" t="n">
-        <v>458.313241129427</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="Y9" t="n">
-        <v>458.313241129427</v>
+        <v>64.27357399906981</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.6494995757273</v>
+        <v>505.3910663399992</v>
       </c>
       <c r="C10" t="n">
-        <v>165.6494995757273</v>
+        <v>505.3910663399992</v>
       </c>
       <c r="D10" t="n">
-        <v>165.6494995757273</v>
+        <v>355.2744269276634</v>
       </c>
       <c r="E10" t="n">
-        <v>165.6494995757273</v>
+        <v>207.3613333452703</v>
       </c>
       <c r="F10" t="n">
-        <v>165.6494995757273</v>
+        <v>207.3613333452703</v>
       </c>
       <c r="G10" t="n">
-        <v>165.6494995757273</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="H10" t="n">
-        <v>165.6494995757273</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="I10" t="n">
-        <v>38.67250990818521</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7151088594234</v>
+        <v>43.17590452428098</v>
       </c>
       <c r="L10" t="n">
-        <v>279.6026869745585</v>
+        <v>216.063482639416</v>
       </c>
       <c r="M10" t="n">
-        <v>448.2056470819963</v>
+        <v>401.7138139340727</v>
       </c>
       <c r="N10" t="n">
-        <v>471.6341805242525</v>
+        <v>587.3641452287294</v>
       </c>
       <c r="O10" t="n">
-        <v>634.3723839608027</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.7254979846282</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="R10" t="n">
-        <v>612.5614882768601</v>
+        <v>612.5614882768592</v>
       </c>
       <c r="S10" t="n">
-        <v>423.1417032603752</v>
+        <v>612.5614882768592</v>
       </c>
       <c r="T10" t="n">
-        <v>233.7219182438902</v>
+        <v>505.3910663399992</v>
       </c>
       <c r="U10" t="n">
-        <v>165.6494995757273</v>
+        <v>505.3910663399992</v>
       </c>
       <c r="V10" t="n">
-        <v>165.6494995757273</v>
+        <v>505.3910663399992</v>
       </c>
       <c r="W10" t="n">
-        <v>165.6494995757273</v>
+        <v>505.3910663399992</v>
       </c>
       <c r="X10" t="n">
-        <v>165.6494995757273</v>
+        <v>505.3910663399992</v>
       </c>
       <c r="Y10" t="n">
-        <v>165.6494995757273</v>
+        <v>505.3910663399992</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1758.885340268918</v>
+        <v>2041.959585564611</v>
       </c>
       <c r="C11" t="n">
-        <v>1389.922823328507</v>
+        <v>1672.997068624199</v>
       </c>
       <c r="D11" t="n">
-        <v>1222.78891630452</v>
+        <v>1314.731370017449</v>
       </c>
       <c r="E11" t="n">
-        <v>1222.78891630452</v>
+        <v>928.9431174192047</v>
       </c>
       <c r="F11" t="n">
-        <v>811.8030115149127</v>
+        <v>517.9572126295971</v>
       </c>
       <c r="G11" t="n">
-        <v>397.0955364855938</v>
+        <v>103.2497376002782</v>
       </c>
       <c r="H11" t="n">
-        <v>103.2497376002781</v>
+        <v>103.2497376002782</v>
       </c>
       <c r="I11" t="n">
-        <v>75.3235423727013</v>
+        <v>75.32354237270116</v>
       </c>
       <c r="J11" t="n">
-        <v>294.5630424345841</v>
+        <v>294.5630424345836</v>
       </c>
       <c r="K11" t="n">
-        <v>673.8847392958178</v>
+        <v>673.8847392958169</v>
       </c>
       <c r="L11" t="n">
-        <v>1181.36860802898</v>
+        <v>1181.368608028978</v>
       </c>
       <c r="M11" t="n">
-        <v>1777.711631111862</v>
+        <v>1777.711631111859</v>
       </c>
       <c r="N11" t="n">
-        <v>2388.317916144494</v>
+        <v>2388.31791614449</v>
       </c>
       <c r="O11" t="n">
-        <v>2951.560855097634</v>
+        <v>2951.560855097629</v>
       </c>
       <c r="P11" t="n">
-        <v>3397.774671549244</v>
+        <v>3397.774671549238</v>
       </c>
       <c r="Q11" t="n">
-        <v>3684.689918077381</v>
+        <v>3684.689918077374</v>
       </c>
       <c r="R11" t="n">
-        <v>3766.177118635065</v>
+        <v>3766.177118635058</v>
       </c>
       <c r="S11" t="n">
-        <v>3664.203320838697</v>
+        <v>3664.20332083869</v>
       </c>
       <c r="T11" t="n">
-        <v>3459.823251835604</v>
+        <v>3459.823251835596</v>
       </c>
       <c r="U11" t="n">
-        <v>3206.321973119494</v>
+        <v>3206.321973119488</v>
       </c>
       <c r="V11" t="n">
-        <v>2875.259085775924</v>
+        <v>2875.259085775917</v>
       </c>
       <c r="W11" t="n">
-        <v>2522.490430505809</v>
+        <v>2522.490430505803</v>
       </c>
       <c r="X11" t="n">
-        <v>2149.02467224473</v>
+        <v>2428.559425628733</v>
       </c>
       <c r="Y11" t="n">
-        <v>1758.885340268918</v>
+        <v>2428.559425628733</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>176.2233266503609</v>
       </c>
       <c r="H12" t="n">
-        <v>87.60741542649171</v>
+        <v>87.60741542649167</v>
       </c>
       <c r="I12" t="n">
-        <v>75.3235423727013</v>
+        <v>75.32354237270116</v>
       </c>
       <c r="J12" t="n">
-        <v>147.5435255378699</v>
+        <v>75.32354237270116</v>
       </c>
       <c r="K12" t="n">
-        <v>147.5435255378699</v>
+        <v>147.5435255378734</v>
       </c>
       <c r="L12" t="n">
-        <v>555.7982798169551</v>
+        <v>555.7982798169579</v>
       </c>
       <c r="M12" t="n">
-        <v>1051.569190100175</v>
+        <v>1051.569190100177</v>
       </c>
       <c r="N12" t="n">
-        <v>1574.870326081955</v>
+        <v>1574.870326081956</v>
       </c>
       <c r="O12" t="n">
-        <v>2031.368835131287</v>
+        <v>2031.368835131288</v>
       </c>
       <c r="P12" t="n">
         <v>2378.41606801957</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>617.4322009226069</v>
+        <v>540.8923967160462</v>
       </c>
       <c r="C13" t="n">
-        <v>448.4960179947</v>
+        <v>540.8923967160462</v>
       </c>
       <c r="D13" t="n">
-        <v>448.4960179947</v>
+        <v>390.7757573037107</v>
       </c>
       <c r="E13" t="n">
-        <v>448.4960179947</v>
+        <v>242.8626637213175</v>
       </c>
       <c r="F13" t="n">
-        <v>301.6060704967897</v>
+        <v>242.8626637213175</v>
       </c>
       <c r="G13" t="n">
-        <v>301.6060704967897</v>
+        <v>75.32354237270116</v>
       </c>
       <c r="H13" t="n">
-        <v>156.844461356266</v>
+        <v>75.32354237270116</v>
       </c>
       <c r="I13" t="n">
-        <v>75.3235423727013</v>
+        <v>75.32354237270116</v>
       </c>
       <c r="J13" t="n">
-        <v>131.7905089456303</v>
+        <v>131.7905089456301</v>
       </c>
       <c r="K13" t="n">
-        <v>354.4199177052559</v>
+        <v>354.4199177052553</v>
       </c>
       <c r="L13" t="n">
-        <v>694.8353468978046</v>
+        <v>694.8353468978036</v>
       </c>
       <c r="M13" t="n">
-        <v>1064.144810310714</v>
+        <v>1064.144810310713</v>
       </c>
       <c r="N13" t="n">
-        <v>1430.107536552756</v>
+        <v>1430.107536552754</v>
       </c>
       <c r="O13" t="n">
-        <v>1752.117051506466</v>
+        <v>1752.117051506463</v>
       </c>
       <c r="P13" t="n">
-        <v>2004.131138183177</v>
+        <v>2004.131138183175</v>
       </c>
       <c r="Q13" t="n">
-        <v>2095.177548728713</v>
+        <v>2095.17754872871</v>
       </c>
       <c r="R13" t="n">
-        <v>2012.708325653363</v>
+        <v>2012.70832565336</v>
       </c>
       <c r="S13" t="n">
-        <v>2012.708325653363</v>
+        <v>1823.875552256242</v>
       </c>
       <c r="T13" t="n">
-        <v>1791.641220950456</v>
+        <v>1602.808447553335</v>
       </c>
       <c r="U13" t="n">
-        <v>1502.547284000281</v>
+        <v>1313.714510603161</v>
       </c>
       <c r="V13" t="n">
-        <v>1247.862795794394</v>
+        <v>1059.030022397274</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.862795794394</v>
+        <v>769.6128523603129</v>
       </c>
       <c r="X13" t="n">
-        <v>1019.873244896377</v>
+        <v>761.6849758595763</v>
       </c>
       <c r="Y13" t="n">
-        <v>799.0806657528466</v>
+        <v>540.8923967160462</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.224468905845</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1948.261951965433</v>
       </c>
       <c r="D14" t="n">
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>793.2220959708307</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872372</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608088</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608066</v>
+        <v>92.81162322608088</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251937</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128763</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
         <v>2182.462224957689</v>
@@ -5297,31 +5297,31 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4605.913419421675</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750194</v>
+        <v>4404.704271100994</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469744</v>
+        <v>4151.260941820543</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126173</v>
+        <v>3820.198054476973</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856059</v>
+        <v>3467.429399206858</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594979</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619167</v>
+        <v>2703.824308969967</v>
       </c>
     </row>
     <row r="15">
@@ -5343,34 +5343,34 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385037</v>
+        <v>583.5439560698319</v>
       </c>
       <c r="M15" t="n">
-        <v>1653.719034637164</v>
+        <v>1175.56231032196</v>
       </c>
       <c r="N15" t="n">
-        <v>2275.814998036501</v>
+        <v>1797.658273721296</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>2344.53474872149</v>
       </c>
       <c r="P15" t="n">
         <v>2552.77562977024</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>783.4761600590343</v>
+        <v>929.4491011061228</v>
       </c>
       <c r="C16" t="n">
-        <v>631.4193681113948</v>
+        <v>929.4491011061228</v>
       </c>
       <c r="D16" t="n">
-        <v>631.4193681113948</v>
+        <v>779.3324616937879</v>
       </c>
       <c r="E16" t="n">
         <v>631.4193681113948</v>
@@ -5431,10 +5431,10 @@
         <v>175.4425088264937</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
         <v>431.4224730861981</v>
@@ -5461,25 +5461,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.3462391076</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
         <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136708</v>
+        <v>1922.332889390518</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930822</v>
+        <v>1667.648401184631</v>
       </c>
       <c r="W16" t="n">
-        <v>1413.906754930822</v>
+        <v>1378.23123114767</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.917204032804</v>
+        <v>1150.241680249653</v>
       </c>
       <c r="Y16" t="n">
-        <v>965.1246248892741</v>
+        <v>929.4491011061228</v>
       </c>
     </row>
     <row r="17">
@@ -5495,22 +5495,22 @@
         <v>1930.119265768718</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.48210440131</v>
+        <v>1575.482104401311</v>
       </c>
       <c r="E17" t="n">
         <v>1193.322389042409</v>
       </c>
       <c r="F17" t="n">
-        <v>785.9650214921439</v>
+        <v>785.9650214921444</v>
       </c>
       <c r="G17" t="n">
         <v>375.6104516478936</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J17" t="n">
         <v>372.3074987251936</v>
@@ -5537,28 +5537,28 @@
         <v>4514.497374127288</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S17" t="n">
-        <v>4558.742435310217</v>
+        <v>4558.742435310219</v>
       </c>
       <c r="T17" t="n">
-        <v>4361.161824228879</v>
+        <v>4361.161824228881</v>
       </c>
       <c r="U17" t="n">
-        <v>4111.34703218777</v>
+        <v>4111.347032187771</v>
       </c>
       <c r="V17" t="n">
-        <v>3783.912682083542</v>
+        <v>3783.912682083544</v>
       </c>
       <c r="W17" t="n">
-        <v>3434.772564052771</v>
+        <v>3434.772564052772</v>
       </c>
       <c r="X17" t="n">
-        <v>3064.935343031034</v>
+        <v>3064.935343031035</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.424548294565</v>
+        <v>2678.424548294566</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5580,34 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G18" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J18" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K18" t="n">
-        <v>92.81162322608053</v>
+        <v>301.0525042748304</v>
       </c>
       <c r="L18" t="n">
-        <v>583.5439560698319</v>
+        <v>791.7848371185818</v>
       </c>
       <c r="M18" t="n">
-        <v>1175.56231032196</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N18" t="n">
-        <v>1797.658273721296</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O18" t="n">
-        <v>2344.53474872149</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
         <v>2552.77562977024</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>555.166459962398</v>
+        <v>619.3972677645537</v>
       </c>
       <c r="C19" t="n">
-        <v>555.166459962398</v>
+        <v>454.0896220759894</v>
       </c>
       <c r="D19" t="n">
-        <v>408.6783577894051</v>
+        <v>454.0896220759894</v>
       </c>
       <c r="E19" t="n">
-        <v>264.3938014463548</v>
+        <v>454.0896220759894</v>
       </c>
       <c r="F19" t="n">
-        <v>264.3938014463548</v>
+        <v>454.0896220759894</v>
       </c>
       <c r="G19" t="n">
-        <v>264.3938014463548</v>
+        <v>310.0581513093778</v>
       </c>
       <c r="H19" t="n">
-        <v>126.1496217241284</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J19" t="n">
-        <v>175.3500754639143</v>
+        <v>175.3500754639144</v>
       </c>
       <c r="K19" t="n">
-        <v>438.5351317827578</v>
+        <v>438.535131782758</v>
       </c>
       <c r="L19" t="n">
-        <v>829.8532792141719</v>
+        <v>829.8532792141721</v>
       </c>
       <c r="M19" t="n">
         <v>1252.639200606911</v>
@@ -5686,7 +5686,7 @@
         <v>1670.891395746898</v>
       </c>
       <c r="O19" t="n">
-        <v>2041.470182110207</v>
+        <v>2041.470182110208</v>
       </c>
       <c r="P19" t="n">
         <v>2335.556946294692</v>
@@ -5695,28 +5695,28 @@
         <v>2456.826409196407</v>
       </c>
       <c r="R19" t="n">
-        <v>2392.595601394251</v>
+        <v>2456.826409196407</v>
       </c>
       <c r="S19" t="n">
-        <v>2213.053948372524</v>
+        <v>2277.28475617468</v>
       </c>
       <c r="T19" t="n">
-        <v>1997.003703326249</v>
+        <v>2061.234511128405</v>
       </c>
       <c r="U19" t="n">
-        <v>1711.556026880319</v>
+        <v>1775.786834682474</v>
       </c>
       <c r="V19" t="n">
-        <v>1460.500075913774</v>
+        <v>1524.73088371593</v>
       </c>
       <c r="W19" t="n">
-        <v>1174.711443116157</v>
+        <v>1238.942250918313</v>
       </c>
       <c r="X19" t="n">
-        <v>950.3504294574823</v>
+        <v>1014.581237259638</v>
       </c>
       <c r="Y19" t="n">
-        <v>733.1863875532949</v>
+        <v>797.4171953554506</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2295.453245469787</v>
       </c>
       <c r="C20" t="n">
-        <v>1930.119265768719</v>
+        <v>1930.119265768718</v>
       </c>
       <c r="D20" t="n">
         <v>1575.482104401311</v>
@@ -5738,46 +5738,46 @@
         <v>1193.322389042409</v>
       </c>
       <c r="F20" t="n">
-        <v>785.9650214921447</v>
+        <v>785.9650214921444</v>
       </c>
       <c r="G20" t="n">
-        <v>375.610451647894</v>
+        <v>375.6104516478936</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608088</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608088</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251962</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128781</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874797</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S20" t="n">
-        <v>4558.742435310218</v>
+        <v>4558.74243531022</v>
       </c>
       <c r="T20" t="n">
         <v>4361.16182422888</v>
@@ -5786,13 +5786,13 @@
         <v>4111.347032187771</v>
       </c>
       <c r="V20" t="n">
-        <v>3783.912682083544</v>
+        <v>3783.912682083543</v>
       </c>
       <c r="W20" t="n">
-        <v>3434.772564052773</v>
+        <v>3434.772564052772</v>
       </c>
       <c r="X20" t="n">
-        <v>3064.935343031036</v>
+        <v>3064.935343031035</v>
       </c>
       <c r="Y20" t="n">
         <v>2678.424548294566</v>
@@ -5817,37 +5817,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G21" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J21" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>423.3203657894393</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L21" t="n">
-        <v>914.0526986331906</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M21" t="n">
-        <v>914.0526986331906</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>1355.754362358723</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="O21" t="n">
-        <v>1902.630837358917</v>
+        <v>2200.595509637359</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
         <v>2552.77562977024</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>564.9663367592904</v>
+        <v>855.7389952753344</v>
       </c>
       <c r="C22" t="n">
-        <v>399.6586910707263</v>
+        <v>690.4313495867704</v>
       </c>
       <c r="D22" t="n">
-        <v>399.6586910707263</v>
+        <v>543.9432474137774</v>
       </c>
       <c r="E22" t="n">
-        <v>399.6586910707263</v>
+        <v>399.6586910707271</v>
       </c>
       <c r="F22" t="n">
-        <v>256.3972808121587</v>
+        <v>256.3972808121589</v>
       </c>
       <c r="G22" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J22" t="n">
         <v>175.3500754639143</v>
@@ -5914,7 +5914,7 @@
         <v>438.5351317827578</v>
       </c>
       <c r="L22" t="n">
-        <v>829.8532792141718</v>
+        <v>829.8532792141719</v>
       </c>
       <c r="M22" t="n">
         <v>1252.639200606911</v>
@@ -5923,37 +5923,37 @@
         <v>1670.891395746898</v>
       </c>
       <c r="O22" t="n">
-        <v>2041.470182110207</v>
+        <v>2041.470182110208</v>
       </c>
       <c r="P22" t="n">
-        <v>2335.556946294691</v>
+        <v>2335.556946294692</v>
       </c>
       <c r="Q22" t="n">
-        <v>2456.826409196406</v>
+        <v>2456.826409196407</v>
       </c>
       <c r="R22" t="n">
-        <v>2392.595601394251</v>
+        <v>2456.826409196407</v>
       </c>
       <c r="S22" t="n">
-        <v>2222.853825169417</v>
+        <v>2277.28475617468</v>
       </c>
       <c r="T22" t="n">
-        <v>2006.803580123142</v>
+        <v>2061.234511128405</v>
       </c>
       <c r="U22" t="n">
-        <v>1721.355903677211</v>
+        <v>2012.128562193255</v>
       </c>
       <c r="V22" t="n">
-        <v>1470.299952710667</v>
+        <v>1761.072611226711</v>
       </c>
       <c r="W22" t="n">
-        <v>1184.511319913049</v>
+        <v>1475.283978429093</v>
       </c>
       <c r="X22" t="n">
-        <v>960.1503062543746</v>
+        <v>1250.922964770419</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.9862643501873</v>
+        <v>1033.758922866231</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2295.453245469787</v>
+        <v>2295.453245469788</v>
       </c>
       <c r="C23" t="n">
-        <v>1930.119265768718</v>
+        <v>1930.119265768719</v>
       </c>
       <c r="D23" t="n">
         <v>1575.482104401311</v>
       </c>
       <c r="E23" t="n">
-        <v>1193.322389042409</v>
+        <v>1193.32238904241</v>
       </c>
       <c r="F23" t="n">
-        <v>785.9650214921445</v>
+        <v>785.9650214921448</v>
       </c>
       <c r="G23" t="n">
         <v>375.6104516478936</v>
@@ -5987,19 +5987,19 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J23" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K23" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128763</v>
       </c>
       <c r="L23" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M23" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N23" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O23" t="n">
         <v>3602.609239333933</v>
@@ -6014,25 +6014,25 @@
         <v>4640.581161304026</v>
       </c>
       <c r="S23" t="n">
-        <v>4558.742435310217</v>
+        <v>4558.742435310218</v>
       </c>
       <c r="T23" t="n">
-        <v>4361.161824228879</v>
+        <v>4361.16182422888</v>
       </c>
       <c r="U23" t="n">
-        <v>4111.347032187771</v>
+        <v>4111.347032187772</v>
       </c>
       <c r="V23" t="n">
-        <v>3783.912682083543</v>
+        <v>3783.912682083544</v>
       </c>
       <c r="W23" t="n">
-        <v>3434.772564052772</v>
+        <v>3434.772564052773</v>
       </c>
       <c r="X23" t="n">
-        <v>3064.935343031035</v>
+        <v>3064.935343031036</v>
       </c>
       <c r="Y23" t="n">
-        <v>2678.424548294566</v>
+        <v>2678.424548294567</v>
       </c>
     </row>
     <row r="24">
@@ -6075,7 +6075,7 @@
         <v>1061.700680385037</v>
       </c>
       <c r="M24" t="n">
-        <v>1383.80319137071</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N24" t="n">
         <v>2005.899154770046</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>555.1664599623982</v>
+        <v>934.7413436364045</v>
       </c>
       <c r="C25" t="n">
-        <v>389.8588142738341</v>
+        <v>769.4336979478404</v>
       </c>
       <c r="D25" t="n">
-        <v>243.3707121008412</v>
+        <v>622.9455957748474</v>
       </c>
       <c r="E25" t="n">
-        <v>243.3707121008412</v>
+        <v>478.6610394317971</v>
       </c>
       <c r="F25" t="n">
-        <v>243.3707121008412</v>
+        <v>335.3996291732295</v>
       </c>
       <c r="G25" t="n">
-        <v>92.81162322608053</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="H25" t="n">
-        <v>92.81162322608053</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="I25" t="n">
         <v>92.81162322608053</v>
@@ -6148,10 +6148,10 @@
         <v>175.3500754639143</v>
       </c>
       <c r="K25" t="n">
-        <v>438.5351317827579</v>
+        <v>438.5351317827578</v>
       </c>
       <c r="L25" t="n">
-        <v>829.8532792141721</v>
+        <v>829.8532792141719</v>
       </c>
       <c r="M25" t="n">
         <v>1252.639200606911</v>
@@ -6172,25 +6172,25 @@
         <v>2392.595601394251</v>
       </c>
       <c r="S25" t="n">
-        <v>2213.053948372525</v>
+        <v>2392.595601394251</v>
       </c>
       <c r="T25" t="n">
-        <v>1997.003703326249</v>
+        <v>2176.545356347976</v>
       </c>
       <c r="U25" t="n">
-        <v>1711.556026880319</v>
+        <v>1891.097679902045</v>
       </c>
       <c r="V25" t="n">
-        <v>1460.500075913775</v>
+        <v>1640.041728935501</v>
       </c>
       <c r="W25" t="n">
-        <v>1174.711443116157</v>
+        <v>1354.253096137884</v>
       </c>
       <c r="X25" t="n">
-        <v>950.3504294574825</v>
+        <v>1329.925313131489</v>
       </c>
       <c r="Y25" t="n">
-        <v>733.1863875532952</v>
+        <v>1112.761271227301</v>
       </c>
     </row>
     <row r="26">
@@ -6212,55 +6212,55 @@
         <v>1193.32238904241</v>
       </c>
       <c r="F26" t="n">
-        <v>785.9650214921453</v>
+        <v>785.9650214921448</v>
       </c>
       <c r="G26" t="n">
-        <v>375.6104516478936</v>
+        <v>375.6104516478937</v>
       </c>
       <c r="H26" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I26" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J26" t="n">
-        <v>372.3074987251953</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K26" t="n">
-        <v>841.9378825128772</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L26" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M26" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N26" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O26" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P26" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q26" t="n">
         <v>4514.497374127289</v>
       </c>
       <c r="R26" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S26" t="n">
-        <v>4558.742435310219</v>
+        <v>4558.74243531022</v>
       </c>
       <c r="T26" t="n">
         <v>4361.161824228881</v>
       </c>
       <c r="U26" t="n">
-        <v>4111.347032187772</v>
+        <v>4111.347032187773</v>
       </c>
       <c r="V26" t="n">
-        <v>3783.912682083544</v>
+        <v>3783.912682083545</v>
       </c>
       <c r="W26" t="n">
         <v>3434.772564052773</v>
@@ -6291,34 +6291,34 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F27" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G27" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H27" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I27" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J27" t="n">
-        <v>92.81162322608054</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K27" t="n">
-        <v>92.81162322608054</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L27" t="n">
-        <v>372.2013186925058</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M27" t="n">
-        <v>964.2196729446335</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N27" t="n">
-        <v>1586.31563634397</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O27" t="n">
-        <v>2133.192111344164</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P27" t="n">
         <v>2552.77562977024</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>555.1664599623981</v>
+        <v>797.4171953554494</v>
       </c>
       <c r="C28" t="n">
-        <v>389.858814273834</v>
+        <v>632.1095496668852</v>
       </c>
       <c r="D28" t="n">
-        <v>389.858814273834</v>
+        <v>485.6214474938922</v>
       </c>
       <c r="E28" t="n">
-        <v>389.858814273834</v>
+        <v>341.3368911508419</v>
       </c>
       <c r="F28" t="n">
-        <v>389.858814273834</v>
+        <v>198.075480892274</v>
       </c>
       <c r="G28" t="n">
-        <v>226.2731566877557</v>
+        <v>198.075480892274</v>
       </c>
       <c r="H28" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I28" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J28" t="n">
-        <v>175.3500754639144</v>
+        <v>175.3500754639135</v>
       </c>
       <c r="K28" t="n">
-        <v>438.5351317827578</v>
+        <v>438.535131782757</v>
       </c>
       <c r="L28" t="n">
-        <v>829.8532792141718</v>
+        <v>829.8532792141712</v>
       </c>
       <c r="M28" t="n">
-        <v>1252.639200606911</v>
+        <v>1252.63920060691</v>
       </c>
       <c r="N28" t="n">
-        <v>1670.891395746898</v>
+        <v>1670.891395746897</v>
       </c>
       <c r="O28" t="n">
-        <v>2041.470182110208</v>
+        <v>2041.470182110207</v>
       </c>
       <c r="P28" t="n">
-        <v>2335.556946294692</v>
+        <v>2335.556946294691</v>
       </c>
       <c r="Q28" t="n">
-        <v>2456.826409196407</v>
+        <v>2456.826409196406</v>
       </c>
       <c r="R28" t="n">
-        <v>2392.595601394251</v>
+        <v>2456.826409196406</v>
       </c>
       <c r="S28" t="n">
-        <v>2213.053948372524</v>
+        <v>2277.284756174679</v>
       </c>
       <c r="T28" t="n">
-        <v>1997.003703326249</v>
+        <v>2061.234511128403</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.556026880319</v>
+        <v>1775.786834682473</v>
       </c>
       <c r="V28" t="n">
-        <v>1460.500075913775</v>
+        <v>1524.730883715929</v>
       </c>
       <c r="W28" t="n">
-        <v>1174.711443116157</v>
+        <v>1238.942250918311</v>
       </c>
       <c r="X28" t="n">
-        <v>950.3504294574824</v>
+        <v>1014.581237259637</v>
       </c>
       <c r="Y28" t="n">
-        <v>733.186387553295</v>
+        <v>797.4171953554494</v>
       </c>
     </row>
     <row r="29">
@@ -6443,22 +6443,22 @@
         <v>1930.119265768719</v>
       </c>
       <c r="D29" t="n">
-        <v>1575.482104401311</v>
+        <v>1575.482104401312</v>
       </c>
       <c r="E29" t="n">
         <v>1193.32238904241</v>
       </c>
       <c r="F29" t="n">
-        <v>785.9650214921448</v>
+        <v>785.9650214921458</v>
       </c>
       <c r="G29" t="n">
         <v>375.6104516478936</v>
       </c>
       <c r="H29" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I29" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J29" t="n">
         <v>372.3074987251936</v>
@@ -6470,28 +6470,28 @@
         <v>1461.45766301865</v>
       </c>
       <c r="M29" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N29" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O29" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P29" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q29" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R29" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S29" t="n">
-        <v>4558.742435310218</v>
+        <v>4558.742435310219</v>
       </c>
       <c r="T29" t="n">
-        <v>4361.16182422888</v>
+        <v>4361.161824228881</v>
       </c>
       <c r="U29" t="n">
         <v>4111.347032187772</v>
@@ -6534,28 +6534,28 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H30" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I30" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J30" t="n">
         <v>240.4596049779265</v>
       </c>
       <c r="K30" t="n">
-        <v>570.9683475412853</v>
+        <v>301.0525042748304</v>
       </c>
       <c r="L30" t="n">
-        <v>570.9683475412853</v>
+        <v>791.7848371185818</v>
       </c>
       <c r="M30" t="n">
-        <v>964.2196729446335</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N30" t="n">
-        <v>1586.31563634397</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O30" t="n">
-        <v>2133.192111344164</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P30" t="n">
         <v>2552.77562977024</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>638.9514545840202</v>
+        <v>555.1664599623974</v>
       </c>
       <c r="C31" t="n">
-        <v>473.643808895456</v>
+        <v>389.8588142738333</v>
       </c>
       <c r="D31" t="n">
-        <v>473.643808895456</v>
+        <v>335.3996291732292</v>
       </c>
       <c r="E31" t="n">
-        <v>473.643808895456</v>
+        <v>335.3996291732292</v>
       </c>
       <c r="F31" t="n">
-        <v>473.643808895456</v>
+        <v>335.3996291732292</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0581513093776</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="H31" t="n">
         <v>171.8139715871509</v>
       </c>
       <c r="I31" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J31" t="n">
         <v>175.3500754639143</v>
       </c>
       <c r="K31" t="n">
-        <v>438.5351317827577</v>
+        <v>438.5351317827578</v>
       </c>
       <c r="L31" t="n">
-        <v>829.8532792141718</v>
+        <v>829.8532792141719</v>
       </c>
       <c r="M31" t="n">
         <v>1252.639200606911</v>
@@ -6643,28 +6643,28 @@
         <v>2456.826409196407</v>
       </c>
       <c r="R31" t="n">
-        <v>2456.826409196407</v>
+        <v>2392.595601394251</v>
       </c>
       <c r="S31" t="n">
-        <v>2277.28475617468</v>
+        <v>2213.053948372524</v>
       </c>
       <c r="T31" t="n">
-        <v>2061.234511128405</v>
+        <v>1997.003703326249</v>
       </c>
       <c r="U31" t="n">
-        <v>1775.786834682474</v>
+        <v>1711.556026880318</v>
       </c>
       <c r="V31" t="n">
-        <v>1544.285070535397</v>
+        <v>1460.500075913774</v>
       </c>
       <c r="W31" t="n">
-        <v>1258.496437737779</v>
+        <v>1174.711443116156</v>
       </c>
       <c r="X31" t="n">
-        <v>1034.135424079104</v>
+        <v>950.3504294574817</v>
       </c>
       <c r="Y31" t="n">
-        <v>816.9713821749172</v>
+        <v>733.1863875532944</v>
       </c>
     </row>
     <row r="32">
@@ -6692,34 +6692,34 @@
         <v>375.6104516478937</v>
       </c>
       <c r="H32" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I32" t="n">
         <v>92.81162322608056</v>
       </c>
       <c r="J32" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K32" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L32" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M32" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N32" t="n">
-        <v>2919.747202874797</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O32" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P32" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q32" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R32" t="n">
         <v>4640.581161304028</v>
@@ -6777,22 +6777,22 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J33" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K33" t="n">
-        <v>92.81162322608056</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L33" t="n">
-        <v>372.2013186925058</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M33" t="n">
-        <v>964.2196729446335</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N33" t="n">
-        <v>1586.31563634397</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O33" t="n">
-        <v>2133.192111344164</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P33" t="n">
         <v>2552.77562977024</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>616.9052191540242</v>
+        <v>638.9514545840202</v>
       </c>
       <c r="C34" t="n">
-        <v>616.9052191540242</v>
+        <v>473.6438088954563</v>
       </c>
       <c r="D34" t="n">
-        <v>616.9052191540242</v>
+        <v>473.6438088954563</v>
       </c>
       <c r="E34" t="n">
-        <v>616.9052191540242</v>
+        <v>473.6438088954563</v>
       </c>
       <c r="F34" t="n">
-        <v>473.6438088954565</v>
+        <v>473.6438088954563</v>
       </c>
       <c r="G34" t="n">
-        <v>310.058151309378</v>
+        <v>310.0581513093779</v>
       </c>
       <c r="H34" t="n">
-        <v>171.813971587151</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="I34" t="n">
         <v>92.81162322608056</v>
@@ -6883,25 +6883,25 @@
         <v>2392.59560139425</v>
       </c>
       <c r="S34" t="n">
-        <v>2274.792707564151</v>
+        <v>2213.053948372523</v>
       </c>
       <c r="T34" t="n">
-        <v>2058.742462517876</v>
+        <v>1997.003703326247</v>
       </c>
       <c r="U34" t="n">
-        <v>1773.294786071946</v>
+        <v>1795.341021501942</v>
       </c>
       <c r="V34" t="n">
-        <v>1522.238835105401</v>
+        <v>1544.285070535397</v>
       </c>
       <c r="W34" t="n">
-        <v>1236.450202307783</v>
+        <v>1258.496437737779</v>
       </c>
       <c r="X34" t="n">
-        <v>1012.089188649109</v>
+        <v>1034.135424079105</v>
       </c>
       <c r="Y34" t="n">
-        <v>794.9251467449212</v>
+        <v>816.9713821749173</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2295.453245469788</v>
+        <v>2295.45324546979</v>
       </c>
       <c r="C35" t="n">
-        <v>1930.119265768719</v>
+        <v>1930.119265768721</v>
       </c>
       <c r="D35" t="n">
-        <v>1575.482104401311</v>
+        <v>1575.482104401313</v>
       </c>
       <c r="E35" t="n">
-        <v>1193.322389042409</v>
+        <v>1193.322389042411</v>
       </c>
       <c r="F35" t="n">
-        <v>785.9650214921444</v>
+        <v>785.9650214921463</v>
       </c>
       <c r="G35" t="n">
-        <v>375.6104516478939</v>
+        <v>375.6104516478954</v>
       </c>
       <c r="H35" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I35" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608134</v>
       </c>
       <c r="J35" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K35" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L35" t="n">
         <v>1461.457663018651</v>
@@ -6950,16 +6950,16 @@
         <v>2919.747202874795</v>
       </c>
       <c r="O35" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P35" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q35" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127291</v>
       </c>
       <c r="R35" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304029</v>
       </c>
       <c r="S35" t="n">
         <v>4558.74243531022</v>
@@ -6968,19 +6968,19 @@
         <v>4361.161824228881</v>
       </c>
       <c r="U35" t="n">
-        <v>4111.347032187773</v>
+        <v>4111.347032187775</v>
       </c>
       <c r="V35" t="n">
-        <v>3783.912682083545</v>
+        <v>3783.912682083547</v>
       </c>
       <c r="W35" t="n">
-        <v>3434.772564052773</v>
+        <v>3434.772564052775</v>
       </c>
       <c r="X35" t="n">
-        <v>3064.935343031036</v>
+        <v>3064.935343031038</v>
       </c>
       <c r="Y35" t="n">
-        <v>2678.424548294567</v>
+        <v>2678.424548294569</v>
       </c>
     </row>
     <row r="36">
@@ -6999,19 +6999,19 @@
         <v>619.2366775615039</v>
       </c>
       <c r="E36" t="n">
-        <v>459.9992225560484</v>
+        <v>459.9992225560485</v>
       </c>
       <c r="F36" t="n">
         <v>313.4646645829334</v>
       </c>
       <c r="G36" t="n">
-        <v>177.6844143428629</v>
+        <v>177.684414342863</v>
       </c>
       <c r="H36" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I36" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J36" t="n">
         <v>240.4596049779265</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>555.1664599623942</v>
+        <v>734.7081129841222</v>
       </c>
       <c r="C37" t="n">
-        <v>389.85881427383</v>
+        <v>569.4004672955579</v>
       </c>
       <c r="D37" t="n">
-        <v>389.85881427383</v>
+        <v>422.9123651225651</v>
       </c>
       <c r="E37" t="n">
-        <v>389.85881427383</v>
+        <v>422.9123651225651</v>
       </c>
       <c r="F37" t="n">
-        <v>389.85881427383</v>
+        <v>422.9123651225651</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0581513093781</v>
+        <v>259.3267075364865</v>
       </c>
       <c r="H37" t="n">
-        <v>171.8139715871511</v>
+        <v>171.813971587151</v>
       </c>
       <c r="I37" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J37" t="n">
         <v>175.3500754639142</v>
       </c>
       <c r="K37" t="n">
-        <v>438.5351317827576</v>
+        <v>438.5351317827575</v>
       </c>
       <c r="L37" t="n">
-        <v>829.8532792141715</v>
+        <v>829.8532792141716</v>
       </c>
       <c r="M37" t="n">
-        <v>1252.63920060691</v>
+        <v>1252.639200606911</v>
       </c>
       <c r="N37" t="n">
         <v>1670.891395746897</v>
@@ -7114,31 +7114,31 @@
         <v>2335.556946294691</v>
       </c>
       <c r="Q37" t="n">
-        <v>2456.826409196405</v>
+        <v>2456.826409196406</v>
       </c>
       <c r="R37" t="n">
-        <v>2392.595601394249</v>
+        <v>2392.59560139425</v>
       </c>
       <c r="S37" t="n">
-        <v>2213.053948372522</v>
+        <v>2392.59560139425</v>
       </c>
       <c r="T37" t="n">
-        <v>1997.003703326247</v>
+        <v>2176.545356347974</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.556026880316</v>
+        <v>1891.097679902044</v>
       </c>
       <c r="V37" t="n">
-        <v>1460.500075913772</v>
+        <v>1640.041728935499</v>
       </c>
       <c r="W37" t="n">
-        <v>1174.711443116154</v>
+        <v>1354.253096137881</v>
       </c>
       <c r="X37" t="n">
-        <v>950.3504294574792</v>
+        <v>1129.892082479207</v>
       </c>
       <c r="Y37" t="n">
-        <v>733.1863875532913</v>
+        <v>912.7280405750192</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2295.453245469788</v>
+        <v>2295.453245469789</v>
       </c>
       <c r="C38" t="n">
-        <v>1930.119265768719</v>
+        <v>1930.11926576872</v>
       </c>
       <c r="D38" t="n">
-        <v>1575.482104401311</v>
+        <v>1575.482104401312</v>
       </c>
       <c r="E38" t="n">
-        <v>1193.322389042409</v>
+        <v>1193.322389042411</v>
       </c>
       <c r="F38" t="n">
-        <v>785.9650214921445</v>
+        <v>785.9650214921462</v>
       </c>
       <c r="G38" t="n">
-        <v>375.6104516478936</v>
+        <v>375.6104516478954</v>
       </c>
       <c r="H38" t="n">
         <v>92.81162322608056</v>
@@ -7172,10 +7172,10 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J38" t="n">
-        <v>372.3074987251944</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K38" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L38" t="n">
         <v>1461.457663018651</v>
@@ -7187,7 +7187,7 @@
         <v>2919.747202874795</v>
       </c>
       <c r="O38" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P38" t="n">
         <v>4150.915188021281</v>
@@ -7211,13 +7211,13 @@
         <v>3783.912682083545</v>
       </c>
       <c r="W38" t="n">
-        <v>3434.772564052773</v>
+        <v>3434.772564052774</v>
       </c>
       <c r="X38" t="n">
-        <v>3064.935343031036</v>
+        <v>3064.935343031037</v>
       </c>
       <c r="Y38" t="n">
-        <v>2678.424548294567</v>
+        <v>2678.424548294568</v>
       </c>
     </row>
     <row r="39">
@@ -7257,7 +7257,7 @@
         <v>570.9683475412853</v>
       </c>
       <c r="L39" t="n">
-        <v>791.7848371185818</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M39" t="n">
         <v>1383.80319137071</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>619.3972677645512</v>
+        <v>555.1664599623981</v>
       </c>
       <c r="C40" t="n">
-        <v>454.0896220759869</v>
+        <v>389.858814273834</v>
       </c>
       <c r="D40" t="n">
-        <v>307.6015199029937</v>
+        <v>389.858814273834</v>
       </c>
       <c r="E40" t="n">
-        <v>307.6015199029937</v>
+        <v>389.858814273834</v>
       </c>
       <c r="F40" t="n">
-        <v>307.6015199029937</v>
+        <v>389.858814273834</v>
       </c>
       <c r="G40" t="n">
-        <v>231.0558029483075</v>
+        <v>310.0581513093778</v>
       </c>
       <c r="H40" t="n">
-        <v>92.81162322608056</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="I40" t="n">
         <v>92.81162322608056</v>
@@ -7333,49 +7333,49 @@
         <v>175.3500754639145</v>
       </c>
       <c r="K40" t="n">
-        <v>438.5351317827578</v>
+        <v>438.5351317827581</v>
       </c>
       <c r="L40" t="n">
-        <v>829.8532792141718</v>
+        <v>829.8532792141725</v>
       </c>
       <c r="M40" t="n">
-        <v>1252.639200606911</v>
+        <v>1252.639200606912</v>
       </c>
       <c r="N40" t="n">
-        <v>1670.891395746897</v>
+        <v>1670.891395746899</v>
       </c>
       <c r="O40" t="n">
-        <v>2041.470182110206</v>
+        <v>2041.470182110208</v>
       </c>
       <c r="P40" t="n">
-        <v>2335.556946294691</v>
+        <v>2335.556946294692</v>
       </c>
       <c r="Q40" t="n">
-        <v>2456.826409196406</v>
+        <v>2456.826409196407</v>
       </c>
       <c r="R40" t="n">
-        <v>2456.826409196406</v>
+        <v>2392.595601394252</v>
       </c>
       <c r="S40" t="n">
-        <v>2277.284756174678</v>
+        <v>2213.053948372524</v>
       </c>
       <c r="T40" t="n">
-        <v>2061.234511128403</v>
+        <v>1997.003703326249</v>
       </c>
       <c r="U40" t="n">
-        <v>1775.786834682473</v>
+        <v>1711.556026880319</v>
       </c>
       <c r="V40" t="n">
-        <v>1524.730883715928</v>
+        <v>1460.500075913775</v>
       </c>
       <c r="W40" t="n">
-        <v>1238.94225091831</v>
+        <v>1174.711443116157</v>
       </c>
       <c r="X40" t="n">
-        <v>1014.581237259636</v>
+        <v>950.3504294574823</v>
       </c>
       <c r="Y40" t="n">
-        <v>797.4171953554483</v>
+        <v>733.186387553295</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2295.453245469788</v>
+        <v>2295.453245469787</v>
       </c>
       <c r="C41" t="n">
-        <v>1930.119265768719</v>
+        <v>1930.119265768718</v>
       </c>
       <c r="D41" t="n">
         <v>1575.482104401311</v>
       </c>
       <c r="E41" t="n">
-        <v>1193.32238904241</v>
+        <v>1193.322389042409</v>
       </c>
       <c r="F41" t="n">
-        <v>785.9650214921448</v>
+        <v>785.9650214921444</v>
       </c>
       <c r="G41" t="n">
-        <v>375.6104516478939</v>
+        <v>375.6104516478936</v>
       </c>
       <c r="H41" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I41" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608066</v>
       </c>
       <c r="J41" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251937</v>
       </c>
       <c r="K41" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L41" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M41" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N41" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O41" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P41" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q41" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R41" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S41" t="n">
-        <v>4558.74243531022</v>
+        <v>4558.742435310219</v>
       </c>
       <c r="T41" t="n">
         <v>4361.161824228881</v>
       </c>
       <c r="U41" t="n">
-        <v>4111.347032187773</v>
+        <v>4111.347032187772</v>
       </c>
       <c r="V41" t="n">
-        <v>3783.912682083545</v>
+        <v>3783.912682083544</v>
       </c>
       <c r="W41" t="n">
-        <v>3434.772564052774</v>
+        <v>3434.772564052773</v>
       </c>
       <c r="X41" t="n">
-        <v>3064.935343031037</v>
+        <v>3064.935343031036</v>
       </c>
       <c r="Y41" t="n">
-        <v>2678.424548294568</v>
+        <v>2678.424548294566</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H42" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I42" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J42" t="n">
         <v>240.4596049779265</v>
@@ -7494,16 +7494,16 @@
         <v>570.9683475412853</v>
       </c>
       <c r="L42" t="n">
-        <v>570.9683475412853</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M42" t="n">
-        <v>964.2196729446335</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N42" t="n">
-        <v>1586.31563634397</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O42" t="n">
-        <v>2133.192111344164</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P42" t="n">
         <v>2552.77562977024</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>638.9514545840208</v>
+        <v>559.9491062229498</v>
       </c>
       <c r="C43" t="n">
-        <v>473.6438088954565</v>
+        <v>394.6414605343857</v>
       </c>
       <c r="D43" t="n">
-        <v>473.6438088954565</v>
+        <v>394.6414605343857</v>
       </c>
       <c r="E43" t="n">
-        <v>473.6438088954565</v>
+        <v>394.6414605343857</v>
       </c>
       <c r="F43" t="n">
-        <v>473.6438088954565</v>
+        <v>394.6414605343857</v>
       </c>
       <c r="G43" t="n">
-        <v>310.058151309378</v>
+        <v>231.0558029483074</v>
       </c>
       <c r="H43" t="n">
-        <v>171.8139715871511</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I43" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J43" t="n">
-        <v>175.3500754639142</v>
+        <v>175.3500754639143</v>
       </c>
       <c r="K43" t="n">
-        <v>438.5351317827576</v>
+        <v>438.5351317827578</v>
       </c>
       <c r="L43" t="n">
-        <v>829.8532792141715</v>
+        <v>829.8532792141719</v>
       </c>
       <c r="M43" t="n">
-        <v>1252.63920060691</v>
+        <v>1252.639200606911</v>
       </c>
       <c r="N43" t="n">
-        <v>1670.891395746897</v>
+        <v>1670.891395746898</v>
       </c>
       <c r="O43" t="n">
-        <v>2041.470182110206</v>
+        <v>2041.470182110207</v>
       </c>
       <c r="P43" t="n">
-        <v>2335.556946294691</v>
+        <v>2335.556946294692</v>
       </c>
       <c r="Q43" t="n">
-        <v>2456.826409196405</v>
+        <v>2456.826409196407</v>
       </c>
       <c r="R43" t="n">
-        <v>2392.595601394249</v>
+        <v>2392.595601394251</v>
       </c>
       <c r="S43" t="n">
-        <v>2213.053948372522</v>
+        <v>2213.053948372524</v>
       </c>
       <c r="T43" t="n">
-        <v>2080.788697947874</v>
+        <v>1997.003703326249</v>
       </c>
       <c r="U43" t="n">
-        <v>1795.341021501943</v>
+        <v>1716.33867314087</v>
       </c>
       <c r="V43" t="n">
-        <v>1544.285070535398</v>
+        <v>1465.282722174326</v>
       </c>
       <c r="W43" t="n">
-        <v>1258.49643773778</v>
+        <v>1179.494089376709</v>
       </c>
       <c r="X43" t="n">
-        <v>1034.135424079105</v>
+        <v>955.1330757180341</v>
       </c>
       <c r="Y43" t="n">
-        <v>816.9713821749178</v>
+        <v>737.9690338138467</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2295.45324546979</v>
+        <v>2295.453245469787</v>
       </c>
       <c r="C44" t="n">
-        <v>1930.11926576872</v>
+        <v>1930.119265768718</v>
       </c>
       <c r="D44" t="n">
-        <v>1575.482104401312</v>
+        <v>1575.482104401311</v>
       </c>
       <c r="E44" t="n">
-        <v>1193.322389042411</v>
+        <v>1193.322389042409</v>
       </c>
       <c r="F44" t="n">
-        <v>785.9650214921459</v>
+        <v>785.9650214921444</v>
       </c>
       <c r="G44" t="n">
-        <v>375.6104516478939</v>
+        <v>375.6104516478936</v>
       </c>
       <c r="H44" t="n">
-        <v>92.8116232260806</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I44" t="n">
-        <v>92.8116232260806</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J44" t="n">
-        <v>372.307498725198</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K44" t="n">
-        <v>841.9378825128799</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L44" t="n">
-        <v>1461.457663018655</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M44" t="n">
-        <v>2182.462224957692</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N44" t="n">
-        <v>2919.747202874798</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O44" t="n">
-        <v>3602.609239333937</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P44" t="n">
-        <v>4150.915188021285</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q44" t="n">
-        <v>4514.497374127292</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R44" t="n">
-        <v>4640.58116130403</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S44" t="n">
-        <v>4558.742435310221</v>
+        <v>4558.742435310219</v>
       </c>
       <c r="T44" t="n">
-        <v>4361.161824228883</v>
+        <v>4361.161824228881</v>
       </c>
       <c r="U44" t="n">
-        <v>4111.347032187775</v>
+        <v>4111.347032187772</v>
       </c>
       <c r="V44" t="n">
-        <v>3783.912682083547</v>
+        <v>3783.912682083544</v>
       </c>
       <c r="W44" t="n">
-        <v>3434.772564052775</v>
+        <v>3434.772564052773</v>
       </c>
       <c r="X44" t="n">
-        <v>3064.935343031038</v>
+        <v>3064.935343031036</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.424548294569</v>
+        <v>2678.424548294566</v>
       </c>
     </row>
     <row r="45">
@@ -7710,43 +7710,43 @@
         <v>619.2366775615039</v>
       </c>
       <c r="E45" t="n">
-        <v>459.9992225560485</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F45" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G45" t="n">
-        <v>177.684414342863</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H45" t="n">
-        <v>92.8116232260806</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I45" t="n">
-        <v>92.8116232260806</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J45" t="n">
-        <v>240.4596049779266</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K45" t="n">
-        <v>240.4596049779266</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4596049779266</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M45" t="n">
-        <v>698.3321947254761</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.428158124812</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O45" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P45" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q45" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R45" t="n">
         <v>2552.77562977024</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>555.1664599623946</v>
+        <v>555.1664599623974</v>
       </c>
       <c r="C46" t="n">
-        <v>537.9028707929539</v>
+        <v>389.8588142738333</v>
       </c>
       <c r="D46" t="n">
-        <v>537.9028707929539</v>
+        <v>389.8588142738333</v>
       </c>
       <c r="E46" t="n">
-        <v>537.9028707929539</v>
+        <v>389.8588142738333</v>
       </c>
       <c r="F46" t="n">
-        <v>394.6414605343861</v>
+        <v>389.8588142738333</v>
       </c>
       <c r="G46" t="n">
-        <v>231.0558029483076</v>
+        <v>226.273156687755</v>
       </c>
       <c r="H46" t="n">
-        <v>92.8116232260806</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I46" t="n">
-        <v>92.8116232260806</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J46" t="n">
-        <v>175.3500754639142</v>
+        <v>175.3500754639144</v>
       </c>
       <c r="K46" t="n">
-        <v>438.5351317827577</v>
+        <v>438.535131782758</v>
       </c>
       <c r="L46" t="n">
-        <v>829.8532792141716</v>
+        <v>829.8532792141721</v>
       </c>
       <c r="M46" t="n">
-        <v>1252.639200606911</v>
+        <v>1252.639200606912</v>
       </c>
       <c r="N46" t="n">
-        <v>1670.891395746897</v>
+        <v>1670.891395746898</v>
       </c>
       <c r="O46" t="n">
-        <v>2041.470182110207</v>
+        <v>2041.470182110208</v>
       </c>
       <c r="P46" t="n">
-        <v>2335.556946294691</v>
+        <v>2335.556946294692</v>
       </c>
       <c r="Q46" t="n">
-        <v>2456.826409196406</v>
+        <v>2456.826409196407</v>
       </c>
       <c r="R46" t="n">
-        <v>2392.59560139425</v>
+        <v>2392.595601394251</v>
       </c>
       <c r="S46" t="n">
-        <v>2213.053948372522</v>
+        <v>2213.053948372524</v>
       </c>
       <c r="T46" t="n">
-        <v>1997.003703326247</v>
+        <v>1997.003703326249</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.556026880316</v>
+        <v>1711.556026880319</v>
       </c>
       <c r="V46" t="n">
-        <v>1460.500075913772</v>
+        <v>1460.500075913775</v>
       </c>
       <c r="W46" t="n">
-        <v>1174.711443116154</v>
+        <v>1174.711443116157</v>
       </c>
       <c r="X46" t="n">
-        <v>950.3504294574795</v>
+        <v>950.3504294574824</v>
       </c>
       <c r="Y46" t="n">
-        <v>733.1863875532916</v>
+        <v>733.1863875532944</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7982,16 @@
         <v>209.057009577846</v>
       </c>
       <c r="L2" t="n">
-        <v>220.4249025169917</v>
+        <v>220.1470824870235</v>
       </c>
       <c r="M2" t="n">
-        <v>212.5009646122118</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8899582399309</v>
+        <v>211.167778269899</v>
       </c>
       <c r="O2" t="n">
-        <v>206.3768508508745</v>
+        <v>213.252896592586</v>
       </c>
       <c r="P2" t="n">
         <v>210.9873633211545</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
         <v>132.5535436227116</v>
@@ -8064,13 +8064,13 @@
         <v>129.0745055979979</v>
       </c>
       <c r="M3" t="n">
-        <v>123.2753489893162</v>
+        <v>129.9234925718064</v>
       </c>
       <c r="N3" t="n">
-        <v>118.6260055667107</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
-        <v>124.673618687554</v>
+        <v>131.2718443992973</v>
       </c>
       <c r="P3" t="n">
         <v>119.5899201578276</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>145.6661165362645</v>
+        <v>145.6661165362652</v>
       </c>
       <c r="K5" t="n">
-        <v>163.635355717117</v>
+        <v>163.635355717118</v>
       </c>
       <c r="L5" t="n">
-        <v>157.1992787036668</v>
+        <v>163.7975044154113</v>
       </c>
       <c r="M5" t="n">
-        <v>142.9251558645141</v>
+        <v>142.9251558645155</v>
       </c>
       <c r="N5" t="n">
-        <v>140.5774218061803</v>
+        <v>147.4534675478932</v>
       </c>
       <c r="O5" t="n">
-        <v>146.2132339612239</v>
+        <v>146.2132339612252</v>
       </c>
       <c r="P5" t="n">
-        <v>166.51515398202</v>
+        <v>159.6391082403097</v>
       </c>
       <c r="Q5" t="n">
-        <v>175.1398876630611</v>
+        <v>168.5416619513186</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>108.5463873189609</v>
+        <v>101.6703415772498</v>
       </c>
       <c r="K6" t="n">
-        <v>101.7025859120652</v>
+        <v>101.7025859120659</v>
       </c>
       <c r="L6" t="n">
-        <v>87.5915857113817</v>
+        <v>87.59158571138261</v>
       </c>
       <c r="M6" t="n">
-        <v>74.63883594533961</v>
+        <v>81.5148816870521</v>
       </c>
       <c r="N6" t="n">
-        <v>68.65834276618496</v>
+        <v>68.65834276618604</v>
       </c>
       <c r="O6" t="n">
-        <v>79.21712025124918</v>
+        <v>79.21712025125017</v>
       </c>
       <c r="P6" t="n">
-        <v>83.10707264700052</v>
+        <v>83.1070726470013</v>
       </c>
       <c r="Q6" t="n">
-        <v>105.978307893997</v>
+        <v>105.9783078939975</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>103.0668412614677</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>108.5582414180286</v>
+        <v>108.5582414180291</v>
       </c>
       <c r="M7" t="n">
-        <v>110.5166491927558</v>
+        <v>103.918423481013</v>
       </c>
       <c r="N7" t="n">
-        <v>100.3866265269496</v>
+        <v>100.3866265269502</v>
       </c>
       <c r="O7" t="n">
-        <v>106.8904281152087</v>
+        <v>109.8117287437681</v>
       </c>
       <c r="P7" t="n">
-        <v>117.5937891837983</v>
+        <v>117.5937891837988</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>42.56275186471073</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>154.1946371899316</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.56319401867222e-12</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>2.614797267597169e-12</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>7.928824838922272</v>
+        <v>7.92882483892228</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>189.2204736669363</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>290.9073408964626</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>276.7394058501691</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8637301351302</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>143.3139930491185</v>
       </c>
       <c r="I13" t="n">
-        <v>10.77257939924888</v>
+        <v>91.478289192978</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.9444456631466</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>217.8610576533079</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.2915261372904</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50.29152613728939</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>16.71059707046467</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>251.2042297912718</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-7.611332038677156e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>163.6545692316785</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>142.8417107796198</v>
       </c>
       <c r="F19" t="n">
         <v>141.8287961559819</v>
       </c>
       <c r="G19" t="n">
-        <v>161.9498010102176</v>
+        <v>19.35864495127205</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>45.20770636439222</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>63.58849972413418</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.575699570821598e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>145.023221151263</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>142.8417107796198</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>63.58849972413418</v>
       </c>
       <c r="S22" t="n">
-        <v>9.701878028923744</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>233.9783102356729</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>142.8417107796198</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>141.8287961559819</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>12.89630302420454</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>136.8617379250045</v>
       </c>
       <c r="I25" t="n">
-        <v>78.21232487745965</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>177.7462364915096</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>198.0328983457569</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>176.239728314988</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>145.023221151263</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>142.8417107796198</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>141.8287961559819</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>161.9498010102176</v>
       </c>
       <c r="H28" t="n">
-        <v>4.734819797946184</v>
+        <v>32.65051883547312</v>
       </c>
       <c r="I28" t="n">
-        <v>78.21232487745965</v>
+        <v>78.21232487745971</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>63.58849972413424</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>145.023221151263</v>
+        <v>91.10862790166492</v>
       </c>
       <c r="E31" t="n">
         <v>142.8417107796198</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>136.8617379250045</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>63.58849972413418</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>19.35864495127173</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>163.6545692316786</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>145.0232211512631</v>
@@ -25084,7 +25084,7 @@
         <v>142.8417107796199</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>141.828796155982</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>61.12137159971227</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.9471446754084</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>145.0232211512632</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>142.84171077962</v>
@@ -25324,10 +25324,10 @@
         <v>141.828796155982</v>
       </c>
       <c r="G37" t="n">
-        <v>82.94714467541037</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>50.22412933516254</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>177.7462364915098</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E40" t="n">
-        <v>142.84171077962</v>
+        <v>142.8417107796198</v>
       </c>
       <c r="F40" t="n">
-        <v>141.828796155982</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G40" t="n">
-        <v>86.16954122507883</v>
+        <v>82.94714467540589</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>78.21232487745982</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.58849972413435</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>145.0232211512632</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E43" t="n">
-        <v>142.84171077962</v>
+        <v>142.8417107796198</v>
       </c>
       <c r="F43" t="n">
-        <v>141.828796155982</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>78.21232487745965</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25837,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>82.94714467541064</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>4.734819797946443</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>146.5636159539323</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>145.0232211512632</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E46" t="n">
-        <v>142.84171077962</v>
+        <v>142.8417107796198</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>4.734819797946841</v>
       </c>
       <c r="I46" t="n">
-        <v>78.21232487745982</v>
+        <v>78.21232487745964</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1137129.557837669</v>
+        <v>1137129.55783767</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>965147.5274293903</v>
+        <v>965147.5274293897</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1071479.968965551</v>
+        <v>1071479.968965552</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1079507.636861495</v>
+        <v>1079507.636861496</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1079507.636861495</v>
+        <v>1079507.636861496</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1079507.636861495</v>
+        <v>1079507.636861496</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348662.4401010833</v>
+        <v>348662.4401010832</v>
       </c>
       <c r="C2" t="n">
-        <v>348674.5200480196</v>
+        <v>348674.5200480198</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923202</v>
       </c>
       <c r="E2" t="n">
-        <v>307032.270755319</v>
+        <v>307032.2707553189</v>
       </c>
       <c r="F2" t="n">
         <v>341138.9029461633</v>
       </c>
       <c r="G2" t="n">
-        <v>343713.8152901453</v>
+        <v>343713.8152901451</v>
       </c>
       <c r="H2" t="n">
-        <v>343713.8152901457</v>
+        <v>343713.8152901451</v>
       </c>
       <c r="I2" t="n">
-        <v>343713.8152901453</v>
+        <v>343713.8152901451</v>
       </c>
       <c r="J2" t="n">
         <v>343713.8152901453</v>
       </c>
       <c r="K2" t="n">
-        <v>343713.8152901453</v>
+        <v>343713.8152901452</v>
       </c>
       <c r="L2" t="n">
-        <v>343713.8152901453</v>
+        <v>343713.8152901452</v>
       </c>
       <c r="M2" t="n">
         <v>343713.8152901453</v>
@@ -26353,7 +26353,7 @@
         <v>343713.8152901452</v>
       </c>
       <c r="P2" t="n">
-        <v>343713.8152901452</v>
+        <v>343713.8152901455</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>36051.26318243808</v>
       </c>
       <c r="C3" t="n">
-        <v>80882.52823647716</v>
+        <v>80882.52823647539</v>
       </c>
       <c r="D3" t="n">
-        <v>419770.4250847577</v>
+        <v>419770.4250847591</v>
       </c>
       <c r="E3" t="n">
-        <v>732230.4779001172</v>
+        <v>732230.4779001159</v>
       </c>
       <c r="F3" t="n">
-        <v>203638.1367317015</v>
+        <v>203638.1367317032</v>
       </c>
       <c r="G3" t="n">
-        <v>2873.801493559502</v>
+        <v>2873.801493559495</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1799.076112044437</v>
+        <v>1799.076112044496</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48594.57458225515</v>
+        <v>48594.57458225504</v>
       </c>
       <c r="M3" t="n">
-        <v>187904.4742438875</v>
+        <v>187904.4742438872</v>
       </c>
       <c r="N3" t="n">
-        <v>53541.28973969517</v>
+        <v>53541.28973969579</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.149809006368741e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,31 +26418,31 @@
         <v>406442.870506277</v>
       </c>
       <c r="C4" t="n">
-        <v>387251.2011402345</v>
+        <v>387251.2011402348</v>
       </c>
       <c r="D4" t="n">
         <v>271884.2225707669</v>
       </c>
       <c r="E4" t="n">
-        <v>8607.51312983262</v>
+        <v>8607.513129832618</v>
       </c>
       <c r="F4" t="n">
         <v>8720.723770518933</v>
       </c>
       <c r="G4" t="n">
-        <v>12187.65154153086</v>
+        <v>12187.6515415309</v>
       </c>
       <c r="H4" t="n">
-        <v>12187.65154153087</v>
+        <v>12187.65154153093</v>
       </c>
       <c r="I4" t="n">
-        <v>12187.65154153086</v>
+        <v>12187.65154153088</v>
       </c>
       <c r="J4" t="n">
-        <v>12187.65154153091</v>
+        <v>12187.65154153081</v>
       </c>
       <c r="K4" t="n">
-        <v>12187.65154153086</v>
+        <v>12187.6515415309</v>
       </c>
       <c r="L4" t="n">
         <v>12187.65154153074</v>
@@ -26451,13 +26451,13 @@
         <v>12187.65154153068</v>
       </c>
       <c r="N4" t="n">
-        <v>12187.6515415307</v>
+        <v>12187.65154153078</v>
       </c>
       <c r="O4" t="n">
-        <v>12187.65154153079</v>
+        <v>12187.65154153081</v>
       </c>
       <c r="P4" t="n">
-        <v>12187.6515415307</v>
+        <v>12187.65154153087</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>34809.12706477298</v>
       </c>
       <c r="C5" t="n">
-        <v>36745.4715001632</v>
+        <v>36745.47150016316</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>82962.40145036484</v>
+        <v>82962.4014503647</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128640.8206524048</v>
+        <v>-128642.4695470592</v>
       </c>
       <c r="C6" t="n">
-        <v>-156204.6808288553</v>
+        <v>-156206.2586649965</v>
       </c>
       <c r="D6" t="n">
-        <v>-399697.6958748179</v>
+        <v>-399697.6958748194</v>
       </c>
       <c r="E6" t="n">
-        <v>-516768.1217249956</v>
+        <v>-517014.6539687414</v>
       </c>
       <c r="F6" t="n">
-        <v>28637.91393010446</v>
+        <v>28592.00893453715</v>
       </c>
       <c r="G6" t="n">
-        <v>228208.236719014</v>
+        <v>228177.478266648</v>
       </c>
       <c r="H6" t="n">
-        <v>231082.0382125739</v>
+        <v>231051.2797602075</v>
       </c>
       <c r="I6" t="n">
-        <v>231082.0382125735</v>
+        <v>231051.2797602077</v>
       </c>
       <c r="J6" t="n">
-        <v>229282.962100529</v>
+        <v>229252.2036481633</v>
       </c>
       <c r="K6" t="n">
-        <v>231082.0382125734</v>
+        <v>231051.2797602076</v>
       </c>
       <c r="L6" t="n">
-        <v>182487.4636303184</v>
+        <v>182456.7051779527</v>
       </c>
       <c r="M6" t="n">
-        <v>43177.56396868621</v>
+        <v>43146.8055163207</v>
       </c>
       <c r="N6" t="n">
-        <v>177540.7484728784</v>
+        <v>177509.9900205119</v>
       </c>
       <c r="O6" t="n">
-        <v>231082.0382125735</v>
+        <v>231051.2797602077</v>
       </c>
       <c r="P6" t="n">
-        <v>231082.0382125733</v>
+        <v>231051.2797602079</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="H2" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="I2" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="J2" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="K2" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="L2" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="M2" t="n">
         <v>3.592251866949185</v>
       </c>
       <c r="N2" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="O2" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="P2" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>123.8443999572087</v>
+        <v>123.8443999572067</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
-        <v>1179.656387482195</v>
+        <v>1179.656387482194</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26793,19 +26793,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>941.5442796587662</v>
+        <v>941.5442796587645</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="I4" t="n">
         <v>1160.145290326006</v>
@@ -26814,7 +26814,7 @@
         <v>1160.145290326007</v>
       </c>
       <c r="K4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="L4" t="n">
         <v>1160.145290326007</v>
@@ -26826,7 +26826,7 @@
         <v>1160.145290326007</v>
       </c>
       <c r="O4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="P4" t="n">
         <v>1160.145290326007</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="M2" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.829647544582258e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>88.82313923808333</v>
+        <v>88.8231392380814</v>
       </c>
       <c r="D3" t="n">
-        <v>424.6255409556961</v>
+        <v>424.6255409556978</v>
       </c>
       <c r="E3" t="n">
-        <v>631.1864465692904</v>
+        <v>631.1864465692893</v>
       </c>
       <c r="F3" t="n">
-        <v>178.3846612341906</v>
+        <v>178.384661234192</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,43 +27015,43 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>180.6495414246085</v>
+      </c>
+      <c r="E4" t="n">
+        <v>754.0186924924446</v>
+      </c>
+      <c r="F4" t="n">
+        <v>218.6010106672425</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.876045741712005</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>180.6495414246087</v>
       </c>
-      <c r="E4" t="n">
-        <v>754.018692492446</v>
-      </c>
-      <c r="F4" t="n">
-        <v>218.6010106672403</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.876045741711778</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>180.6495414246091</v>
-      </c>
       <c r="M4" t="n">
-        <v>754.018692492446</v>
+        <v>754.0186924924449</v>
       </c>
       <c r="N4" t="n">
-        <v>218.6010106672403</v>
+        <v>218.6010106672422</v>
       </c>
       <c r="O4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>180.6495414246087</v>
+        <v>180.6495414246085</v>
       </c>
       <c r="M4" t="n">
-        <v>754.018692492446</v>
+        <v>754.0186924924446</v>
       </c>
       <c r="N4" t="n">
-        <v>218.6010106672403</v>
+        <v>218.6010106672425</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375.8577959217691</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>375.8739489829624</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>331.1569011525894</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>198.9917010283464</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.4767625605679</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27473,7 +27473,7 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>104.631881361733</v>
       </c>
       <c r="I3" t="n">
         <v>86.80307722268741</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>88.60479815866813</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
@@ -27518,13 +27518,13 @@
         <v>225.9245414077138</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X3" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6262746880049</v>
       </c>
     </row>
     <row r="4">
@@ -27549,19 +27549,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>161.8714051760593</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>154.7896383561658</v>
       </c>
       <c r="I4" t="n">
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>82.01821069278695</v>
       </c>
       <c r="K4" t="n">
-        <v>8.875829556412572</v>
+        <v>8.05620490400057</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>279.4395389006103</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>218.8336096473257</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.7086076103834</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>334.3760223728053</v>
+        <v>334.3760223728054</v>
       </c>
       <c r="I5" t="n">
-        <v>185.2254534887435</v>
+        <v>185.2254534887438</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>111.7189383750684</v>
+        <v>111.7189383750688</v>
       </c>
       <c r="S5" t="n">
-        <v>197.674926816296</v>
+        <v>197.6749268162962</v>
       </c>
       <c r="T5" t="n">
-        <v>220.9164370583517</v>
+        <v>220.9164370583518</v>
       </c>
       <c r="U5" t="n">
         <v>251.3058235530764</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>130.2010891272516</v>
+        <v>137.0771348689631</v>
       </c>
       <c r="H6" t="n">
-        <v>102.7867063371834</v>
+        <v>109.6627520788949</v>
       </c>
       <c r="I6" t="n">
-        <v>73.34909145249526</v>
+        <v>80.22513719420684</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>83.61876504137666</v>
+        <v>76.74271929966548</v>
       </c>
       <c r="S6" t="n">
-        <v>166.7352368225286</v>
+        <v>166.7352368225287</v>
       </c>
       <c r="T6" t="n">
         <v>199.0910211140605</v>
@@ -27752,10 +27752,10 @@
         <v>219.8674358407381</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>139.3646269336318</v>
       </c>
       <c r="G7" t="n">
         <v>167.7676533913228</v>
@@ -27792,10 +27792,10 @@
         <v>160.2416016359945</v>
       </c>
       <c r="I7" t="n">
-        <v>148.7344540246608</v>
+        <v>148.7344540246609</v>
       </c>
       <c r="J7" t="n">
-        <v>70.69398849844967</v>
+        <v>70.69398849844993</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>60.58549311644444</v>
+        <v>60.58549311644474</v>
       </c>
       <c r="R7" t="n">
-        <v>160.3757980585998</v>
+        <v>160.3757980585999</v>
       </c>
       <c r="S7" t="n">
-        <v>220.1246355006121</v>
+        <v>220.1246355006122</v>
       </c>
       <c r="T7" t="n">
         <v>226.9913784777915</v>
@@ -27831,7 +27831,7 @@
         <v>286.3068479401016</v>
       </c>
       <c r="V7" t="n">
-        <v>246.0812222345286</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G8" t="n">
-        <v>391.6379580593307</v>
+        <v>230.5408212213781</v>
       </c>
       <c r="H8" t="n">
-        <v>129.3682389399022</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>213.4438810562068</v>
@@ -27910,7 +27910,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>140.2266713038148</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.7123514897335</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27938,19 +27938,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550655</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714234</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>94.06396849782637</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>38.3381812437708</v>
+        <v>38.33818124377103</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310537</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>135.3012577403317</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715758</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28014,22 +28014,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>19.25466862917611</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>36.19408632377997</v>
+        <v>117.6209557726086</v>
       </c>
       <c r="U10" t="n">
-        <v>218.873387011969</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="C17" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="D17" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="E17" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="F17" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="G17" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="H17" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="T17" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="U17" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="V17" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="W17" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="X17" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="C19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="D19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="E19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="F19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="G19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="H19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="I19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="J19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="K19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="L19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="M19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="N19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="O19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="P19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="R19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="S19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="T19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="U19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="V19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="W19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="X19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="C20" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="D20" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="E20" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="F20" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="G20" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="H20" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="T20" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="U20" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="V20" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="W20" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="X20" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="C22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="D22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="E22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="F22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="G22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="H22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="I22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="J22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="K22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="L22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="M22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="N22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="O22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="P22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="R22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="S22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="T22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="U22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="V22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="W22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="X22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="C23" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="D23" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="E23" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="F23" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="G23" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="H23" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="T23" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="U23" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="V23" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="W23" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="X23" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="C25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="D25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="E25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="F25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="G25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="H25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="I25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="J25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="K25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="L25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="M25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="N25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="O25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="P25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="R25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="S25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="T25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="U25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="V25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="W25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="X25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C26" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D26" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E26" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F26" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G26" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H26" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T26" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U26" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V26" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W26" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X26" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="J28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="K28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="L28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="M28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="N28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="O28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="P28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="R28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="S28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="C29" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="D29" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="E29" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="F29" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="G29" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="H29" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="T29" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="U29" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="V29" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="W29" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="X29" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="Y29" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="C31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="D31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="E31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="F31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="G31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="H31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="I31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="J31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="K31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="L31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="M31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="N31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="O31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="P31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="R31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="S31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="T31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="U31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="V31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="W31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="X31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949368</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="C32" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="D32" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="E32" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="F32" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="G32" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="H32" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="T32" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="U32" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="V32" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="W32" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="X32" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="C34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="D34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="E34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="F34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="G34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="H34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="I34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="J34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="K34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="L34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="M34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="N34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="O34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="P34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="R34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="S34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="T34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="U34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="V34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="W34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="X34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.592251866949249</v>
+        <v>3.59225186694925</v>
       </c>
     </row>
     <row r="35">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="C38" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="D38" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="E38" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="F38" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="G38" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="H38" t="n">
-        <v>3.592251866949425</v>
+        <v>3.592251866947606</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="T38" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="U38" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="V38" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="W38" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="X38" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="Y38" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="C40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="D40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="E40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="F40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="G40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="H40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="I40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="J40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="K40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="L40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="M40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="N40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="O40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="P40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="R40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="S40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="T40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="U40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="V40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="W40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="X40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="C41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="D41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="E41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="F41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="G41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="H41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.592251866951386</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="T41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="U41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="V41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="W41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="X41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="Y41" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866948345</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="C43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="D43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="E43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="F43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="G43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="H43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="I43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="J43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="K43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="L43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="M43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="N43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="O43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="P43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="R43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="S43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="T43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="U43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="V43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="W43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="X43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949368</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="C44" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="D44" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="E44" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="F44" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="G44" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="H44" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="T44" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="U44" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="V44" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="W44" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="X44" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="C46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="D46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="E46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="F46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="G46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="H46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="I46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="J46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="K46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="L46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="M46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="N46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="O46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="P46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="R46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="S46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="T46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="U46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="V46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="W46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="X46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.592251866949198</v>
+        <v>3.592251866949378</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.497866934501341</v>
+        <v>0.4978669345013332</v>
       </c>
       <c r="H5" t="n">
-        <v>5.09877974296186</v>
+        <v>5.09877974296178</v>
       </c>
       <c r="I5" t="n">
-        <v>19.19401499236297</v>
+        <v>19.19401499236266</v>
       </c>
       <c r="J5" t="n">
-        <v>42.25583373213323</v>
+        <v>42.25583373213257</v>
       </c>
       <c r="K5" t="n">
-        <v>63.330541069575</v>
+        <v>63.33054106957401</v>
       </c>
       <c r="L5" t="n">
-        <v>78.56713626632043</v>
+        <v>78.5671362663192</v>
       </c>
       <c r="M5" t="n">
-        <v>87.42107736275864</v>
+        <v>87.42107736275727</v>
       </c>
       <c r="N5" t="n">
-        <v>88.83564179041059</v>
+        <v>88.8356417904092</v>
       </c>
       <c r="O5" t="n">
-        <v>83.88497746046288</v>
+        <v>83.88497746046157</v>
       </c>
       <c r="P5" t="n">
-        <v>71.59388751496101</v>
+        <v>71.59388751495989</v>
       </c>
       <c r="Q5" t="n">
-        <v>53.76402792313172</v>
+        <v>53.76402792313088</v>
       </c>
       <c r="R5" t="n">
-        <v>31.27413382436988</v>
+        <v>31.2741338243694</v>
       </c>
       <c r="S5" t="n">
-        <v>11.34514276994932</v>
+        <v>11.34514276994914</v>
       </c>
       <c r="T5" t="n">
-        <v>2.179412505779621</v>
+        <v>2.179412505779587</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03982935476010727</v>
+        <v>0.03982935476010665</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2663822942475809</v>
+        <v>0.2663822942475767</v>
       </c>
       <c r="H6" t="n">
-        <v>2.572692157601637</v>
+        <v>2.572692157601597</v>
       </c>
       <c r="I6" t="n">
-        <v>9.171495657208379</v>
+        <v>9.171495657208235</v>
       </c>
       <c r="J6" t="n">
-        <v>25.16728508941728</v>
+        <v>25.16728508941689</v>
       </c>
       <c r="K6" t="n">
-        <v>43.0148988040052</v>
+        <v>43.01489880400453</v>
       </c>
       <c r="L6" t="n">
-        <v>57.83883981020391</v>
+        <v>57.83883981020301</v>
       </c>
       <c r="M6" t="n">
-        <v>67.49519797667871</v>
+        <v>67.49519797667766</v>
       </c>
       <c r="N6" t="n">
-        <v>69.28159502889166</v>
+        <v>69.28159502889058</v>
       </c>
       <c r="O6" t="n">
-        <v>63.37912419319526</v>
+        <v>63.37912419319427</v>
       </c>
       <c r="P6" t="n">
-        <v>50.86733476732972</v>
+        <v>50.86733476732893</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.00346619202454</v>
+        <v>34.00346619202401</v>
       </c>
       <c r="R6" t="n">
-        <v>16.53906911126647</v>
+        <v>16.53906911126622</v>
       </c>
       <c r="S6" t="n">
-        <v>4.947934281309229</v>
+        <v>4.947934281309152</v>
       </c>
       <c r="T6" t="n">
-        <v>1.073707580761082</v>
+        <v>1.073707580761065</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01752515093734085</v>
+        <v>0.01752515093734058</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.22332596713595</v>
+        <v>0.2233259671359465</v>
       </c>
       <c r="H7" t="n">
-        <v>1.985570871445084</v>
+        <v>1.985570871445053</v>
       </c>
       <c r="I7" t="n">
-        <v>6.716020902597481</v>
+        <v>6.716020902597376</v>
       </c>
       <c r="J7" t="n">
-        <v>15.78914587651166</v>
+        <v>15.78914587651142</v>
       </c>
       <c r="K7" t="n">
-        <v>25.94641690906764</v>
+        <v>25.94641690906723</v>
       </c>
       <c r="L7" t="n">
-        <v>33.20248060492116</v>
+        <v>33.20248060492064</v>
       </c>
       <c r="M7" t="n">
-        <v>35.00736046659259</v>
+        <v>35.00736046659205</v>
       </c>
       <c r="N7" t="n">
-        <v>34.17496367999499</v>
+        <v>34.17496367999446</v>
       </c>
       <c r="O7" t="n">
-        <v>31.56611033663411</v>
+        <v>31.56611033663362</v>
       </c>
       <c r="P7" t="n">
-        <v>27.0102606070607</v>
+        <v>27.01026060706029</v>
       </c>
       <c r="Q7" t="n">
-        <v>18.70050439353851</v>
+        <v>18.70050439353821</v>
       </c>
       <c r="R7" t="n">
-        <v>10.04154757685826</v>
+        <v>10.0415475768581</v>
       </c>
       <c r="S7" t="n">
-        <v>3.891962536360146</v>
+        <v>3.891962536360085</v>
       </c>
       <c r="T7" t="n">
-        <v>0.954210950489968</v>
+        <v>0.9542109504899531</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01218141638923365</v>
+        <v>0.01218141638923346</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,46 +31516,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,13 +31592,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
         <v>111.4584056340083</v>
@@ -31607,34 +31607,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
         <v>114.9089482765069</v>
@@ -31695,25 +31695,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.742337236109324</v>
+        <v>4.742337236109319</v>
       </c>
       <c r="H11" t="n">
-        <v>48.56746121930463</v>
+        <v>48.56746121930457</v>
       </c>
       <c r="I11" t="n">
-        <v>182.8289562951049</v>
+        <v>182.8289562951047</v>
       </c>
       <c r="J11" t="n">
-        <v>402.4999449932341</v>
+        <v>402.4999449932336</v>
       </c>
       <c r="K11" t="n">
-        <v>603.2430801977418</v>
+        <v>603.2430801977412</v>
       </c>
       <c r="L11" t="n">
-        <v>748.3763833873228</v>
+        <v>748.3763833873219</v>
       </c>
       <c r="M11" t="n">
-        <v>832.7129232099819</v>
+        <v>832.712923209981</v>
       </c>
       <c r="N11" t="n">
-        <v>846.1870888820777</v>
+        <v>846.1870888820766</v>
       </c>
       <c r="O11" t="n">
-        <v>799.0304729905155</v>
+        <v>799.0304729905146</v>
       </c>
       <c r="P11" t="n">
-        <v>681.9540224740664</v>
+        <v>681.9540224740656</v>
       </c>
       <c r="Q11" t="n">
-        <v>512.1190702059012</v>
+        <v>512.1190702059005</v>
       </c>
       <c r="R11" t="n">
-        <v>297.8958414077526</v>
+        <v>297.8958414077522</v>
       </c>
       <c r="S11" t="n">
-        <v>108.0660097678413</v>
+        <v>108.0660097678412</v>
       </c>
       <c r="T11" t="n">
-        <v>20.75958125106857</v>
+        <v>20.75958125106855</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3793869788887458</v>
+        <v>0.3793869788887454</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.537374116471137</v>
+        <v>2.537374116471134</v>
       </c>
       <c r="H12" t="n">
-        <v>24.50569212486598</v>
+        <v>24.50569212486596</v>
       </c>
       <c r="I12" t="n">
-        <v>87.36134567674749</v>
+        <v>87.36134567674739</v>
       </c>
       <c r="J12" t="n">
-        <v>199.7871046112814</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>210.7909169189775</v>
       </c>
       <c r="L12" t="n">
-        <v>550.9329194557178</v>
+        <v>550.9329194557171</v>
       </c>
       <c r="M12" t="n">
-        <v>642.9127311777963</v>
+        <v>642.9127311777955</v>
       </c>
       <c r="N12" t="n">
-        <v>659.9287181255349</v>
+        <v>659.9287181255341</v>
       </c>
       <c r="O12" t="n">
-        <v>603.7058495447797</v>
+        <v>603.705849544779</v>
       </c>
       <c r="P12" t="n">
-        <v>484.5271679075455</v>
+        <v>484.5271679075449</v>
       </c>
       <c r="Q12" t="n">
-        <v>323.8935802007719</v>
+        <v>323.8935802007715</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>47.13061133006692</v>
+        <v>47.13061133006686</v>
       </c>
       <c r="T12" t="n">
-        <v>10.22739830279374</v>
+        <v>10.22739830279373</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1669325076625749</v>
+        <v>0.1669325076625747</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.127249223328548</v>
+        <v>2.127249223328546</v>
       </c>
       <c r="H13" t="n">
-        <v>18.91317945832111</v>
+        <v>18.91317945832109</v>
       </c>
       <c r="I13" t="n">
-        <v>63.97218573428037</v>
+        <v>63.97218573428029</v>
       </c>
       <c r="J13" t="n">
-        <v>150.3965200893284</v>
+        <v>150.3965200893282</v>
       </c>
       <c r="K13" t="n">
-        <v>247.1476824921713</v>
+        <v>247.147682492171</v>
       </c>
       <c r="L13" t="n">
-        <v>316.2639436210463</v>
+        <v>316.2639436210459</v>
       </c>
       <c r="M13" t="n">
-        <v>333.4559850714014</v>
+        <v>333.4559850714011</v>
       </c>
       <c r="N13" t="n">
-        <v>325.5271470571771</v>
+        <v>325.5271470571767</v>
       </c>
       <c r="O13" t="n">
-        <v>300.677008402839</v>
+        <v>300.6770084028386</v>
       </c>
       <c r="P13" t="n">
-        <v>257.2811242469364</v>
+        <v>257.281124246936</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.1281145098115</v>
+        <v>178.1281145098113</v>
       </c>
       <c r="R13" t="n">
-        <v>95.64886053257271</v>
+        <v>95.6488605325726</v>
       </c>
       <c r="S13" t="n">
-        <v>37.07215237382569</v>
+        <v>37.07215237382565</v>
       </c>
       <c r="T13" t="n">
-        <v>9.089155772403796</v>
+        <v>9.089155772403785</v>
       </c>
       <c r="U13" t="n">
-        <v>0.116031775817921</v>
+        <v>0.1160317758179208</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745725</v>
@@ -32090,10 +32090,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>422.3544583169084</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>344.3187317059969</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>348.1857632660256</v>
       </c>
       <c r="L18" t="n">
         <v>634.2436048745725</v>
@@ -32330,7 +32330,7 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
-        <v>344.3187317059969</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
         <v>471.6886536848224</v>
@@ -32558,19 +32558,19 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5050087757899</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982454</v>
+        <v>489.7119024980487</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32795,10 +32795,10 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
-        <v>467.4901056247181</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O24" t="n">
         <v>694.9967242426205</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L27" t="n">
-        <v>420.7661933823239</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
         <v>740.1323715504302</v>
@@ -33038,10 +33038,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33263,13 +33263,13 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>471.6886536848224</v>
+        <v>199.0463877591104</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M30" t="n">
-        <v>539.3575949355013</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N30" t="n">
         <v>759.7214730927639</v>
@@ -33278,7 +33278,7 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
-        <v>420.7661933823239</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M33" t="n">
         <v>740.1323715504302</v>
@@ -33512,10 +33512,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33977,10 +33977,10 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>361.6013389488605</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504302</v>
+        <v>467.4901056247181</v>
       </c>
       <c r="N39" t="n">
         <v>759.7214730927639</v>
@@ -34214,19 +34214,19 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
-        <v>539.3575949355013</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34366,7 +34366,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>463.364970687411</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K44" t="n">
         <v>694.4639760830431</v>
@@ -34448,13 +34448,13 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
-        <v>604.6315993235835</v>
+        <v>467.4901056247181</v>
       </c>
       <c r="N45" t="n">
         <v>759.7214730927639</v>
@@ -34463,13 +34463,13 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.25758340862161</v>
@@ -34702,16 +34702,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L2" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522132</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>6.876045741711437</v>
@@ -34784,13 +34784,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2279021592211622</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>6.876045741711437</v>
@@ -35021,7 +35021,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N6" t="n">
         <v>6.598225711743297</v>
@@ -35094,19 +35094,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>3.676925083184383</v>
       </c>
       <c r="L7" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="M7" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2.921300628558912</v>
       </c>
       <c r="P7" t="n">
         <v>6.876045741711437</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>92.63945645062405</v>
+        <v>28.45844197068221</v>
       </c>
       <c r="L10" t="n">
-        <v>174.6339172880153</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M10" t="n">
-        <v>170.3060203105432</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520832</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O10" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
-        <v>116.8989542469473</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>221.4540404665478</v>
+        <v>221.4540404665473</v>
       </c>
       <c r="K11" t="n">
-        <v>383.1532291527613</v>
+        <v>383.1532291527606</v>
       </c>
       <c r="L11" t="n">
-        <v>512.6099684173355</v>
+        <v>512.6099684173346</v>
       </c>
       <c r="M11" t="n">
-        <v>602.3666899827092</v>
+        <v>602.3666899827083</v>
       </c>
       <c r="N11" t="n">
-        <v>616.7740252854867</v>
+        <v>616.7740252854858</v>
       </c>
       <c r="O11" t="n">
-        <v>568.9322615688287</v>
+        <v>568.9322615688278</v>
       </c>
       <c r="P11" t="n">
-        <v>450.7210267187968</v>
+        <v>450.7210267187961</v>
       </c>
       <c r="Q11" t="n">
-        <v>289.8133803314516</v>
+        <v>289.813380331451</v>
       </c>
       <c r="R11" t="n">
-        <v>82.31030359362046</v>
+        <v>82.31030359362012</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>72.94947794461477</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>72.94947794461848</v>
       </c>
       <c r="L12" t="n">
-        <v>412.3785396758436</v>
+        <v>412.3785396758429</v>
       </c>
       <c r="M12" t="n">
-        <v>500.778697255778</v>
+        <v>500.7786972557772</v>
       </c>
       <c r="N12" t="n">
-        <v>528.5870060422017</v>
+        <v>528.5870060422009</v>
       </c>
       <c r="O12" t="n">
-        <v>461.1096051003352</v>
+        <v>461.1096051003345</v>
       </c>
       <c r="P12" t="n">
-        <v>350.5527604932153</v>
+        <v>350.5527604932147</v>
       </c>
       <c r="Q12" t="n">
-        <v>183.9118061147503</v>
+        <v>183.9118061147499</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.03733997265559</v>
+        <v>57.03733997265542</v>
       </c>
       <c r="K13" t="n">
-        <v>224.8781906662884</v>
+        <v>224.8781906662882</v>
       </c>
       <c r="L13" t="n">
-        <v>343.8539688813624</v>
+        <v>343.853968881362</v>
       </c>
       <c r="M13" t="n">
-        <v>373.039862033242</v>
+        <v>373.0398620332417</v>
       </c>
       <c r="N13" t="n">
-        <v>369.6593194364057</v>
+        <v>369.6593194364053</v>
       </c>
       <c r="O13" t="n">
-        <v>325.2621363168786</v>
+        <v>325.2621363168783</v>
       </c>
       <c r="P13" t="n">
-        <v>254.5596835118299</v>
+        <v>254.5596835118295</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.96607125811708</v>
+        <v>91.96607125811688</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946983</v>
@@ -35738,10 +35738,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>279.758213872464</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>210.3443242916667</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35902,10 +35902,10 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404108</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845857</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>210.3443242916665</v>
       </c>
       <c r="L18" t="n">
         <v>495.6892250946983</v>
@@ -35978,7 +35978,7 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
-        <v>210.3443242916667</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>83.3721739776099</v>
+        <v>83.37217397760989</v>
       </c>
       <c r="K19" t="n">
-        <v>265.8434912311552</v>
+        <v>265.8434912311551</v>
       </c>
       <c r="L19" t="n">
         <v>395.2708559913274</v>
@@ -36051,7 +36051,7 @@
         <v>427.0564862552922</v>
       </c>
       <c r="N19" t="n">
-        <v>422.4769647878655</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O19" t="n">
         <v>374.3220064275853</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607229</v>
       </c>
       <c r="K20" t="n">
         <v>474.3741250380626</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
         <v>333.8472147104634</v>
@@ -36206,19 +36206,19 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>446.1632966924565</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839152</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>83.3721739776099</v>
+        <v>83.37217397760989</v>
       </c>
       <c r="K22" t="n">
-        <v>265.8434912311552</v>
+        <v>265.8434912311551</v>
       </c>
       <c r="L22" t="n">
         <v>395.2708559913274</v>
@@ -36288,7 +36288,7 @@
         <v>427.0564862552922</v>
       </c>
       <c r="N22" t="n">
-        <v>422.4769647878655</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O22" t="n">
         <v>374.3220064275853</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607202</v>
+        <v>282.319066160721</v>
       </c>
       <c r="K23" t="n">
         <v>474.3741250380626</v>
@@ -36379,7 +36379,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845839</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
-        <v>325.3560717026998</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O24" t="n">
         <v>552.4004797981761</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>83.3721739776099</v>
+        <v>83.37217397760989</v>
       </c>
       <c r="K25" t="n">
-        <v>265.8434912311552</v>
+        <v>265.8434912311551</v>
       </c>
       <c r="L25" t="n">
         <v>395.2708559913274</v>
@@ -36525,7 +36525,7 @@
         <v>427.0564862552922</v>
       </c>
       <c r="N25" t="n">
-        <v>422.4769647878655</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O25" t="n">
         <v>374.3220064275853</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607219</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K26" t="n">
         <v>474.3741250380626</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L27" t="n">
-        <v>282.2118136024497</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
         <v>597.9983376284119</v>
@@ -36686,10 +36686,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>83.3721739776099</v>
+        <v>83.37217397760983</v>
       </c>
       <c r="K28" t="n">
-        <v>265.8434912311552</v>
+        <v>265.843491231155</v>
       </c>
       <c r="L28" t="n">
-        <v>395.2708559913274</v>
+        <v>395.2708559913273</v>
       </c>
       <c r="M28" t="n">
-        <v>427.0564862552922</v>
+        <v>427.0564862552921</v>
       </c>
       <c r="N28" t="n">
-        <v>422.4769647878655</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O28" t="n">
         <v>374.3220064275853</v>
       </c>
       <c r="P28" t="n">
-        <v>297.0573375600853</v>
+        <v>297.0573375600852</v>
       </c>
       <c r="Q28" t="n">
         <v>122.4944069714292</v>
@@ -36838,7 +36838,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020583</v>
+        <v>728.28743630206</v>
       </c>
       <c r="N29" t="n">
         <v>744.73230092637</v>
@@ -36850,7 +36850,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404108</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
         <v>127.3573607845842</v>
@@ -36911,13 +36911,13 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>333.8472147104634</v>
+        <v>61.20494878475142</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M30" t="n">
-        <v>397.223561013483</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N30" t="n">
         <v>628.3797610094306</v>
@@ -36926,7 +36926,7 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>83.3721739776099</v>
+        <v>83.37217397760989</v>
       </c>
       <c r="K31" t="n">
-        <v>265.8434912311552</v>
+        <v>265.8434912311551</v>
       </c>
       <c r="L31" t="n">
         <v>395.2708559913274</v>
@@ -36999,7 +36999,7 @@
         <v>427.0564862552922</v>
       </c>
       <c r="N31" t="n">
-        <v>422.4769647878655</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O31" t="n">
         <v>374.3220064275853</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
-        <v>282.2118136024497</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M33" t="n">
         <v>597.9983376284119</v>
@@ -37160,10 +37160,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>223.0469591689863</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>325.3560717026998</v>
       </c>
       <c r="N39" t="n">
         <v>628.3797610094306</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>83.37217397760972</v>
+        <v>83.37217397760989</v>
       </c>
       <c r="K40" t="n">
-        <v>265.8434912311549</v>
+        <v>265.8434912311551</v>
       </c>
       <c r="L40" t="n">
-        <v>395.2708559913272</v>
+        <v>395.2708559913274</v>
       </c>
       <c r="M40" t="n">
-        <v>427.056486255292</v>
+        <v>427.0564862552922</v>
       </c>
       <c r="N40" t="n">
-        <v>422.4769647878653</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O40" t="n">
-        <v>374.3220064275852</v>
+        <v>374.3220064275853</v>
       </c>
       <c r="P40" t="n">
-        <v>297.0573375600851</v>
+        <v>297.0573375600853</v>
       </c>
       <c r="Q40" t="n">
-        <v>122.4944069714291</v>
+        <v>122.4944069714292</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
-        <v>397.223561013483</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>83.37217397760972</v>
+        <v>83.37217397760989</v>
       </c>
       <c r="K43" t="n">
-        <v>265.8434912311549</v>
+        <v>265.8434912311551</v>
       </c>
       <c r="L43" t="n">
-        <v>395.2708559913272</v>
+        <v>395.2708559913274</v>
       </c>
       <c r="M43" t="n">
-        <v>427.056486255292</v>
+        <v>427.0564862552922</v>
       </c>
       <c r="N43" t="n">
-        <v>422.4769647878653</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O43" t="n">
-        <v>374.3220064275852</v>
+        <v>374.3220064275853</v>
       </c>
       <c r="P43" t="n">
-        <v>297.0573375600851</v>
+        <v>297.0573375600853</v>
       </c>
       <c r="Q43" t="n">
-        <v>122.4944069714291</v>
+        <v>122.4944069714292</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>282.3190661607247</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K44" t="n">
         <v>474.3741250380626</v>
@@ -38096,13 +38096,13 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
-        <v>462.4975654015652</v>
+        <v>325.3560717026998</v>
       </c>
       <c r="N45" t="n">
         <v>628.3797610094306</v>
@@ -38111,13 +38111,13 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>83.37217397760972</v>
+        <v>83.3721739776099</v>
       </c>
       <c r="K46" t="n">
-        <v>265.8434912311549</v>
+        <v>265.8434912311551</v>
       </c>
       <c r="L46" t="n">
-        <v>395.2708559913272</v>
+        <v>395.2708559913274</v>
       </c>
       <c r="M46" t="n">
-        <v>427.056486255292</v>
+        <v>427.0564862552922</v>
       </c>
       <c r="N46" t="n">
-        <v>422.4769647878653</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O46" t="n">
-        <v>374.3220064275852</v>
+        <v>374.3220064275853</v>
       </c>
       <c r="P46" t="n">
-        <v>297.0573375600851</v>
+        <v>297.0573375600853</v>
       </c>
       <c r="Q46" t="n">
-        <v>122.4944069714291</v>
+        <v>122.4944069714292</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
